--- a/src/static/cleaned_data/cleaned_data.xlsx
+++ b/src/static/cleaned_data/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11665,6 +11665,2806 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Senior Projektsteuerer (m/w/d) Gewerbeimmobilien Eigentümerseite - bis ca. 170.000 € Jahresgehalt</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Qtalents - Real Estate Recruiting</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E402" t="b">
+        <v>0</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qtalents-real-estate-recruiting/senior-projektsteuerer-gewerbeimmobilien-eigentumerseite-bis-ca-170000-eur-jahresgehalt-munich-468052</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>VP Investment (d/m/w)</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Liqid Investments Gmbh</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E403" t="b">
+        <v>0</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/liqid-investments-gmbh/vp-investment-berlin-196516</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>VP Finance (d/m/w)</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Liqid Investments Gmbh</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E404" t="b">
+        <v>0</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/liqid-investments-gmbh/vp-finance-berlin-396764</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Business Consultant &amp; Project Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Integrated Worlds Gmbh</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Holzgerlingen</t>
+        </is>
+      </c>
+      <c r="E405" t="b">
+        <v>0</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/integrated-worlds-gmbh/business-consultant-project-manager-holzgerlingen-416217</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Senior Performance Marketing Manager (m/w/d) mit Schwerpunkt Google Ads (Hybrid)</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Servicehero Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E406" t="b">
+        <v>0</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/servicehero-gmbh-cokg/senior-performance-marketing-manager-mit-schwerpunkt-google-ads-hybrid-berlin-177826</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Google Ads Experte / Performance Marketing Spezialist (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Servicehero Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E407" t="b">
+        <v>0</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/servicehero-gmbh-cokg/google-ads-experte-performance-marketing-spezialist-berlin-448576</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Junior Art Director (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Mwd Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E408" t="b">
+        <v>0</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/mwd-gmbh-co-kg/junior-art-director-berlin-477113</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Operations SalesOps RevOps Internship/Praktikant (m/w/d) - REMOTE</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Grundwerk Digital</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E409" t="b">
+        <v>1</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/grundwerk-digital/operations-salesops-revops-internship-praktikant-remote-berlin-187306</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Designer im Online-Marketing und Webdesign (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E410" t="b">
+        <v>0</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/designer-im-online-marketing-und-webdesign-stuttgart-414113</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Praktikum Model Booker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Masrany Media</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Burscheid</t>
+        </is>
+      </c>
+      <c r="E411" t="b">
+        <v>1</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/masrany-media/praktikum-model-booker-burscheid-419900</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>E-Commerce (Amazon) Manager/in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Adsmasters Gmbh</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E412" t="b">
+        <v>0</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/adsmasters-gmbh/e-commerce-amazon-manager-in-dusseldorf-159035</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Call Center Agent  m/w/d Kundenservice</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E413" t="b">
+        <v>0</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/call-center-agent-kundenservice-berlin-168758</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E414" t="b">
+        <v>0</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-276628</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Projektingenieur Elektrotechnik / Automatisierungstechnik (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Personalica Gmbh</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E415" t="b">
+        <v>0</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalica-gmbh/projektingenieur-elektrotechnik-automatisierungstechnik-hamburg-303816</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Bonn, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="E416" t="b">
+        <v>0</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-bonn-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-257381</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Dortmund, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E417" t="b">
+        <v>0</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-dortmund-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-477945</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Köln, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E418" t="b">
+        <v>0</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-koln-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-cologne-138713</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Senior Projektmanager (m/w/d)  Finanzsektor &amp; IT</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Klar-Franchise Gmbh</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Siegburg</t>
+        </is>
+      </c>
+      <c r="E419" t="b">
+        <v>0</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/klar-franchise-gmbh/senior-projektmanager-finanzsektor-it-siegburg-113121</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>IT-Systemadministrator (m/w/d)  Infrastruktur &amp; Support</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Klar-Franchise Gmbh</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Siegburg</t>
+        </is>
+      </c>
+      <c r="E420" t="b">
+        <v>0</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/klar-franchise-gmbh/it-systemadministrator-infrastruktur-support-siegburg-124519</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Bausachbearbeitung (m/w/d) für Brand- und Wasserschadensanierung</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Externum Ug (Haftungsbeschränkt)</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Porta Westfalica</t>
+        </is>
+      </c>
+      <c r="E421" t="b">
+        <v>0</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/externum-ug-haftungsbeschrankt/bausachbearbeitung-fur-brand-und-wasserschadensanierung-porta-westfalica-266385</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Projektleitung (m/w/d) für Brand- und Wasserschadensanierung</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Externum Ug (Haftungsbeschränkt)</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="E422" t="b">
+        <v>0</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/externum-ug-haftungsbeschrankt/projektleitung-fur-brand-und-wasserschadensanierung-paderborn-142490</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Einsatz-/ Baustellenleitung (m/w/d) für Brand- und Wasserschadensanierung</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Externum Ug (Haftungsbeschränkt)</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="E423" t="b">
+        <v>0</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/externum-ug-haftungsbeschrankt/einsatz-baustellenleitung-fur-brand-und-wasserschadensanierung-paderborn-383852</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Projektleitung (m/w/d) für Brand- und Wasserschadensanierung</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Externum Ug (Haftungsbeschränkt)</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Neu-Anspach</t>
+        </is>
+      </c>
+      <c r="E424" t="b">
+        <v>0</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/externum-ug-haftungsbeschrankt/projektleitung-fur-brand-und-wasserschadensanierung-neu-anspach-351712</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Einsatz-/ Baustellenleitung (m/w/d) für Brand- und Wasserschadensanierung</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Externum Ug (Haftungsbeschränkt)</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Neu-Anspach</t>
+        </is>
+      </c>
+      <c r="E425" t="b">
+        <v>0</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/externum-ug-haftungsbeschrankt/einsatz-baustellenleitung-fur-brand-und-wasserschadensanierung-neu-anspach-294313</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Projektleitung (m/w/d) für Brand- und Wasserschadensanierung</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Externum Ug (Haftungsbeschränkt)</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Sinsheim</t>
+        </is>
+      </c>
+      <c r="E426" t="b">
+        <v>0</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/externum-ug-haftungsbeschrankt/projektleitung-fur-brand-und-wasserschadensanierung-sinsheim-394803</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Einsatz-/ Baustellenleitung (m/w/d) für Brand- und Wasserschadensanierung</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Externum Ug (Haftungsbeschränkt)</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Sinsheim</t>
+        </is>
+      </c>
+      <c r="E427" t="b">
+        <v>0</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/externum-ug-haftungsbeschrankt/einsatz-baustellenleitung-fur-brand-und-wasserschadensanierung-sinsheim-363106</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Handwerklicher Allrounder (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Externum Ug (Haftungsbeschränkt)</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Sinsheim</t>
+        </is>
+      </c>
+      <c r="E428" t="b">
+        <v>0</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/externum-ug-haftungsbeschrankt/handwerklicher-allrounder-sinsheim-81847</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Senior Specialist of Technology Management</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Personalberatung Sabine Perry</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Schmitten</t>
+        </is>
+      </c>
+      <c r="E429" t="b">
+        <v>0</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-sabine-perry/senior-specialist-of-technology-management-schmitten-49498</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Senior Engineer of Industrial Coatings R&amp;D, Hunan/China</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Personalberatung Sabine Perry</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Schmitten</t>
+        </is>
+      </c>
+      <c r="E430" t="b">
+        <v>0</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-sabine-perry/senior-engineer-of-industrial-coatings-rd-hunan-china-schmitten-293550</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Content Marketing Manager</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Roderer Executive Search</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E431" t="b">
+        <v>0</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/roderer-executive-search/content-marketing-manager-munich-399631</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Kundenberater/Konzeptioner (m/w/d) - Marketingprofi gesucht</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Wyynot Gmbh</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="E432" t="b">
+        <v>0</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wyynot-gmbh/kundenberater-konzeptioner-marketingprofi-gesucht-karlsruhe-342943</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Berechnungsingenieur (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Diaba Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Leutkirch im Allgäu</t>
+        </is>
+      </c>
+      <c r="E433" t="b">
+        <v>0</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/diaba-consulting-gmbh/berechnungsingenieur-leutkirch-im-allgau-449402</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Berechnungsingenieur (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Diaba Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="E434" t="b">
+        <v>0</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/diaba-consulting-gmbh/berechnungsingenieur-rostock-158385</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Data Engineer/Data Analytics Developer (m/w/d) · Data Architektur, Lakehouse, Pipelines, Azure AI</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Sdx Ag</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E435" t="b">
+        <v>0</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/sdx-ag/data-engineer-data-analytics-developer-data-architektur-lakehouse-pipelines-azure-ai-frankfurt-127647</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Social Media Manager / Content Creator</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Rough.</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Unna</t>
+        </is>
+      </c>
+      <c r="E436" t="b">
+        <v>0</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/rough/social-media-manager-content-creator-unna-282220</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>C# Entwickler (m/w/d) - Coding mit 4 Tage Woche</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Mb Software Und Systeme Gmbh</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Wissen</t>
+        </is>
+      </c>
+      <c r="E437" t="b">
+        <v>0</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/mb-software-und-systeme-gmbh/c-entwickler-coding-mit-4-tage-woche-wissen-188387</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Kundenberater m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E438" t="b">
+        <v>0</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/kundenberater-krankenversicherung-hamburg-269584</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Account Manager m/w/d</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E439" t="b">
+        <v>0</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/account-manager-berlin-12746</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Call Center Agent  m/w/d Kundenservice</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E440" t="b">
+        <v>0</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/call-center-agent-kundenservice-berlin-442228</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E441" t="b">
+        <v>0</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-339811</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Datenmanger/in (m/w/d) für Produktinformationen</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Salchow + Berger Gmbh</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Essenbach</t>
+        </is>
+      </c>
+      <c r="E442" t="b">
+        <v>0</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/salchow-berger-gmbh/datenmanger-in-fur-produktinformationen-essenbach-300308</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Schichtleitung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Drk-Kreisverband Wedding / Prenzlauer Berg E. V.</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E443" t="b">
+        <v>0</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/drk-kreisverband-wedding-prenzlauer-berg-e-v/schichtleitung-berlin-143716</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Market Access &amp; Reimbursement ManagerIn</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Privatinstitut Für Klinikmanagement Gmbh</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E444" t="b">
+        <v>0</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/privatinstitut-fur-klinikmanagement-gmbh/market-access-reimbursement-managerin-cologne-188108</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Werkzeug- und Formenbauleitung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Polytalent Gmbh</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E445" t="b">
+        <v>0</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/polytalent-gmbh/werkzeug-und-formenbauleitung-cologne-211474</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Junior Vertriebsmanager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Polytalent Gmbh</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Bielefeld</t>
+        </is>
+      </c>
+      <c r="E446" t="b">
+        <v>0</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/polytalent-gmbh/junior-vertriebsmanager-bielefeld-57314</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Vertriebsmitarbeiter (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Polytalent Gmbh</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Bielefeld</t>
+        </is>
+      </c>
+      <c r="E447" t="b">
+        <v>0</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/polytalent-gmbh/vertriebsmitarbeiter-bielefeld-374849</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Leiter Bilanzbuchhalter mit Kostenrechnungserfahrung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Polytalent Gmbh</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Wildeshausen</t>
+        </is>
+      </c>
+      <c r="E448" t="b">
+        <v>0</v>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/polytalent-gmbh/leiter-bilanzbuchhalter-mit-kostenrechnungserfahrung-wildeshausen-282759</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Kaufmännischen Leiter mit Schwerpunkt Kostenrechnung / Controlling im Rechnungswesen  (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Polytalent Gmbh</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Wildeshausen</t>
+        </is>
+      </c>
+      <c r="E449" t="b">
+        <v>0</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/polytalent-gmbh/kaufmannischen-leiter-mit-schwerpunkt-kostenrechnung-controlling-im-rechnungswesen-wildeshausen-234017</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Scooters Mechanic</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Bolt Technology</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Dortmund, North Rhine-Westphalia, Germany</t>
+        </is>
+      </c>
+      <c r="E450" t="b">
+        <v>0</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bolt-technology/scooters-mechanic-dortmund-386790</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Ausbildung als Fachlagerist (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Flora Food Group</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Pratau, Saxony-Anhalt, Germany</t>
+        </is>
+      </c>
+      <c r="E451" t="b">
+        <v>0</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flora-food-group/ausbildung-als-fachlagerist-pratau-497378</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Ausbildung zum Elektroniker (m/w/d) für Automatisierungstechnik</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Flora Food Group</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Pratau, Saxony-Anhalt, Germany</t>
+        </is>
+      </c>
+      <c r="E452" t="b">
+        <v>0</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flora-food-group/ausbildung-zum-elektroniker-fur-automatisierungstechnik-pratau-242105</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>452</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Ausbildung zur Fachkraft (m/w/d) für Lebensmitteltechnik</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Flora Food Group</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Pratau, Saxony-Anhalt, Germany</t>
+        </is>
+      </c>
+      <c r="E453" t="b">
+        <v>0</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flora-food-group/ausbildung-zur-fachkraft-fur-lebensmitteltechnik-pratau-410145</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Zugverkehrssteuerer (m/w/d) FlixTrain</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E454" t="b">
+        <v>0</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugverkehrssteuerer-flixtrain-berlin-470410</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>454</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Zugdisponent FlixTrain (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E455" t="b">
+        <v>0</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugdisponent-flixtrain-berlin-215192</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>455</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Disponent Zugverkehr (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E456" t="b">
+        <v>0</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/disponent-zugverkehr-berlin-302695</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Zugführer:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Cologne, North Rhine-Westphalia, Germany</t>
+        </is>
+      </c>
+      <c r="E457" t="b">
+        <v>0</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrerin-cologne-151871</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>457</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Zugführer:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Leipzig, Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E458" t="b">
+        <v>0</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrerin-leipzig-262475</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>458</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Zugführer:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Hamburg, Hamburg, Germany</t>
+        </is>
+      </c>
+      <c r="E459" t="b">
+        <v>0</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrerin-hamburg-294553</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>459</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Zugführer:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E460" t="b">
+        <v>0</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrerin-berlin-266486</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>460</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Quereinstieg Zugführer:in (m/w/d) ab Juni</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Cologne, North Rhine-Westphalia, Germany</t>
+        </is>
+      </c>
+      <c r="E461" t="b">
+        <v>0</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/quereinstieg-zugfuhrerin-ab-juni-cologne-85630</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>461</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Quereinstieg Zugführer:in (m/w/d) ab Juni</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Leipzig, Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E462" t="b">
+        <v>0</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/quereinstieg-zugfuhrerin-ab-juni-leipzig-437399</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>462</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Quereinstieg Zugführer:in (m/w/d) ab Juni</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Hamburg, Hamburg, Germany</t>
+        </is>
+      </c>
+      <c r="E463" t="b">
+        <v>0</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/quereinstieg-zugfuhrerin-ab-juni-hamburg-47679</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>463</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Quereinstieg Zugführer:in (m/w/d) ab Juni</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E464" t="b">
+        <v>0</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/quereinstieg-zugfuhrerin-ab-juni-berlin-71201</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>464</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Zugassistent:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E465" t="b">
+        <v>0</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugassistentin-berlin-490622</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>465</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E466" t="b">
+        <v>0</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-berlin-77719</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>466</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Cologne, North Rhine-Westphalia, Germany</t>
+        </is>
+      </c>
+      <c r="E467" t="b">
+        <v>0</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-cologne-130417</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>467</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main, Hesse, Germany</t>
+        </is>
+      </c>
+      <c r="E468" t="b">
+        <v>0</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-frankfurt-am-main-207411</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>468</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Hamburg, Hamburg, Germany</t>
+        </is>
+      </c>
+      <c r="E469" t="b">
+        <v>0</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-hamburg-34176</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>469</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Stuttgart, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E470" t="b">
+        <v>0</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-stuttgart-67127</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>470</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Dresden, Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E471" t="b">
+        <v>0</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-dresden-74454</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>471</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Leipzig, Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E472" t="b">
+        <v>0</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-leipzig-335198</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>472</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Hannöver, Lower Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E473" t="b">
+        <v>0</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-hannover-304235</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>473</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Dortmund, North Rhine-Westphalia, Germany</t>
+        </is>
+      </c>
+      <c r="E474" t="b">
+        <v>0</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-dortmund-345460</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>474</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer/in für unseren Partner Netzwerkbahn Sachsen (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E475" t="b">
+        <v>0</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-in-fur-unseren-partner-netzwerkbahn-sachsen-berlin-184658</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>475</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer/in für unseren Partner Netzwerkbahn Sachsen (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Stuttgart, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E476" t="b">
+        <v>0</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-in-fur-unseren-partner-netzwerkbahn-sachsen-stuttgart-74826</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>476</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Zugführer für unseren Partner Netzwerkbahn Sachsen GmbH (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main, Hesse, Germany</t>
+        </is>
+      </c>
+      <c r="E477" t="b">
+        <v>0</v>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-netzwerkbahn-sachsen-gmbh-frankfurt-am-main-107116</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>477</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer/in für unseren Partner Netzwerkbahn Sachsen (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main, Hesse, Germany</t>
+        </is>
+      </c>
+      <c r="E478" t="b">
+        <v>0</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-in-fur-unseren-partner-netzwerkbahn-sachsen-frankfurt-am-main-92194</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>478</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Zugführer für unseren Partner Netzwerkbahn Sachsen GmbH (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Erfurt, Thuringia, Germany</t>
+        </is>
+      </c>
+      <c r="E479" t="b">
+        <v>0</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-netzwerkbahn-sachsen-gmbh-erfurt-34241</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>479</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Triebfahrzeugführer/in für unseren Partner Netzwerkbahn Sachsen (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Erfurt, Thuringia, Germany</t>
+        </is>
+      </c>
+      <c r="E480" t="b">
+        <v>0</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/triebfahrzeugfuhrer-in-fur-unseren-partner-netzwerkbahn-sachsen-erfurt-296082</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>480</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Stuttgart, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E481" t="b">
+        <v>0</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-stuttgart-499507</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>481</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Frankfurt, Hesse, Germany</t>
+        </is>
+      </c>
+      <c r="E482" t="b">
+        <v>0</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-frankfurt-431875</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>482</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Hamburg, Hamburg, Germany</t>
+        </is>
+      </c>
+      <c r="E483" t="b">
+        <v>0</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-hamburg-209728</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>483</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Dresden, Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E484" t="b">
+        <v>0</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-dresden-147294</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>484</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Leipzig, Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E485" t="b">
+        <v>0</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-leipzig-467642</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>485</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E486" t="b">
+        <v>0</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-berlin-350313</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>486</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Hanover, Lower Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E487" t="b">
+        <v>0</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-hanover-163165</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>487</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Dortmund, North Rhine-Westphalia, Germany</t>
+        </is>
+      </c>
+      <c r="E488" t="b">
+        <v>0</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-dortmund-50629</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>488</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Zugschaffner (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Cologne, North Rhine-Westphalia, Germany</t>
+        </is>
+      </c>
+      <c r="E489" t="b">
+        <v>0</v>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugschaffner-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-cologne-350407</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>489</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Zugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Stuttgart, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E490" t="b">
+        <v>0</v>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-stuttgart-282298</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>490</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Zugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Frankfurt, Hesse, Germany</t>
+        </is>
+      </c>
+      <c r="E491" t="b">
+        <v>0</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-frankfurt-46519</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>491</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Zugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Hamburg, Hamburg, Germany</t>
+        </is>
+      </c>
+      <c r="E492" t="b">
+        <v>0</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-hamburg-499730</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>492</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Zugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Dresden, Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E493" t="b">
+        <v>0</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-dresden-49933</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>493</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Zugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Leipzig, Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E494" t="b">
+        <v>0</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-leipzig-462893</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>494</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Zugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E495" t="b">
+        <v>0</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-berlin-312572</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>495</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Zugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Hanover, Lower Saxony, Germany</t>
+        </is>
+      </c>
+      <c r="E496" t="b">
+        <v>0</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-hanover-385385</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>496</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Zugführer (m/w/d) für unseren Partner Schienenverkehrsgesellschaft mbH</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Dortmund, North Rhine-Westphalia, Germany</t>
+        </is>
+      </c>
+      <c r="E497" t="b">
+        <v>0</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-schienenverkehrsgesellschaft-mbh-dortmund-100412</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>497</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Zugassistent (m/w/d) FlixTrain für unseren Partner Berliner Bahnservice</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Stuttgart, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E498" t="b">
+        <v>0</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugassistent-flixtrain-fur-unseren-partner-berliner-bahnservice-stuttgart-61867</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>498</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Zugassistent (m/w/d) FlixTrain für unseren Partner Berliner Bahnservice</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E499" t="b">
+        <v>0</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugassistent-flixtrain-fur-unseren-partner-berliner-bahnservice-465688</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>499</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Zugführer für unseren Partner Netzwerkbahn Sachsen GmbH (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E500" t="b">
+        <v>0</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-netzwerkbahn-sachsen-gmbh-berlin-64664</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>500</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Zugführer für unseren Partner Netzwerkbahn Sachsen GmbH (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Stuttgart, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E501" t="b">
+        <v>0</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/zugfuhrer-fur-unseren-partner-netzwerkbahn-sachsen-gmbh-stuttgart-227555</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/cleaned_data/cleaned_data.xlsx
+++ b/src/static/cleaned_data/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:F601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14465,6 +14465,2806 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Assistenz Remote (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Tecis Finanzdienstleistungen Ag</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E502" t="b">
+        <v>1</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tecis-finanzdienstleistungen-ag/assistenz-remote-frankfurt-119151</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Industrial Project Manager</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Ucaneo</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E503" t="b">
+        <v>0</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ucaneo/industrial-project-manager-berlin-61869</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Werkstudent für Webshop &amp; Online-Marktplätze gesucht!</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Dias-Gruppe Gbr</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Ahrensburg</t>
+        </is>
+      </c>
+      <c r="E504" t="b">
+        <v>0</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dias-gruppe-gbr/werkstudent-fur-webshop-online-marktplatze-gesucht-ahrensburg-69358</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>504</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>It-Systemkaufmann (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Ht Kommunikation Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Oberkirch</t>
+        </is>
+      </c>
+      <c r="E505" t="b">
+        <v>0</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ht-kommunikation-gmbh-cokg/it-systemkaufmann-oberkirch-127808</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>505</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Privatkundenberater (gn*)</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Volksbank Raiffeisenbank Fürstenfeldbruck Eg</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Maisach</t>
+        </is>
+      </c>
+      <c r="E506" t="b">
+        <v>0</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/volksbank-raiffeisenbank-furstenfeldbruck-eg/privatkundenberater-gn-maisach-28952</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>506</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Trocknungsmonteur / Servicetechniker als Trocknungstechniker</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="E507" t="b">
+        <v>0</v>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/trocknungsmonteur-servicetechniker-als-trocknungstechniker-sandhausen-426729</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>507</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Partnerships &amp; Business Development Manager (BD)</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Particula</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E508" t="b">
+        <v>1</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/particula/partnerships-business-development-manager-bd-munich-335152</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>508</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Trocknungsmonteur / Servicetechniker als Trocknungstechniker</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="E509" t="b">
+        <v>0</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/trocknungsmonteur-servicetechniker-als-trocknungstechniker-heilbronn-47872</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>509</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Allround-Handwerker, Servicetechniker (m/w/d) Schadensanierung - WB</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Wiesbaden</t>
+        </is>
+      </c>
+      <c r="E510" t="b">
+        <v>0</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/allround-handwerker-servicetechniker-schadensanierung-wb-wiesbaden-389115</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>510</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Trocknungstechniker, Servicetechniker (mwd) Schadensanierung</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="E511" t="b">
+        <v>0</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/trocknungstechniker-servicetechniker-mwd-schadensanierung-heilbronn-71280</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>511</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Servicetechniker Trocknung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="E512" t="b">
+        <v>0</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/servicetechniker-trocknung-sandhausen-93352</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>512</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Servicetechniker Trocknung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Srt Friedrich Gmbh</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="E513" t="b">
+        <v>0</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/srt-friedrich-gmbh/servicetechniker-trocknung-heilbronn-51899</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>513</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Head of Marketing (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Yagcho</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E514" t="b">
+        <v>1</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/yagcho/head-of-marketing-hamburg-496694</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>514</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Personalberater (m/w/d) - IT &amp; Managment</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Eaces Gmbh</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E515" t="b">
+        <v>0</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eaces-gmbh/personalberater-it-managment-munich-393738</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>515</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Manager*in Qualitätsmanagement &amp; Regulatory Affairs (m/w/d) - ab sofort (Teil- oder Vollzeit, remote)</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Bornholdt Lee Gmbh</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E516" t="b">
+        <v>1</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bornholdt-lee-gmbh/managerin-qualitatsmanagement-regulatory-affairs-ab-sofort-teil-oder-vollzeit-remote-hamburg-340340</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>516</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Agile Projektmanager*in (m/w/d) - ab sofort (Teil- oder Vollzeit, remote)</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Bornholdt Lee Gmbh</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E517" t="b">
+        <v>1</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bornholdt-lee-gmbh/agile-projektmanagerin-ab-sofort-teil-oder-vollzeit-remote-hamburg-276307</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>517</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Bauprojekt-Manager/in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Rbi Beteiligungen Und Immobilien Gmbh</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E518" t="b">
+        <v>0</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/rbi-beteiligungen-und-immobilien-gmbh/bauprojekt-manager-in-berlin-93338</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>518</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Senior Frontend Engineer - Flutter (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Crewmeister</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E519" t="b">
+        <v>0</v>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crewmeister/senior-frontend-engineer-flutter-munich-162056</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>519</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Pflege.De | Web Care Lbj Gmbh</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E520" t="b">
+        <v>0</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/pflegede-web-care-lbj-gmbh/senior-software-engineer-hamburg-279280</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>520</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Key Account Manager (m/w/d) - Personalberatung</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Karriereweg Gmbh</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E521" t="b">
+        <v>0</v>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/karriereweg-gmbh/key-account-manager-personalberatung-dusseldorf-208710</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>521</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Content Talent (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Castin - And Much More</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E522" t="b">
+        <v>0</v>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/castin-and-much-more/content-talent-frankfurt-332808</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Senior Consultant (m/w/d) IT-Managementberatung</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Serview Gmbh</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E523" t="b">
+        <v>0</v>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/serview-gmbh/senior-consultant-it-managementberatung-berlin-472006</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Customer Success Manager (m/w/d) | Teilnehmerbetreuung | Bildungsinstitut für Online Marketing, Digitalisierung &amp; KI</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Distart Education Gmbh</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E524" t="b">
+        <v>0</v>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/distart-education-gmbh/customer-success-manager-teilnehmerbetreuung-bildungsinstitut-fur-online-marketing-digitalisierung-ki-leipzig-413587</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Customer Success Manager (m/w/d) | Teilnehmerkoordination | Bildungsinstitut für Online Marketing, Digitalisierung &amp; KI</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Distart Education Gmbh</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E525" t="b">
+        <v>0</v>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/distart-education-gmbh/customer-success-manager-teilnehmerkoordination-bildungsinstitut-fur-online-marketing-digitalisierung-ki-leipzig-255236</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d) HR - Schwerpunkt Social Media (10h/pro Woche)</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Simba Computer Systeme Gmbh</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Ostfildern</t>
+        </is>
+      </c>
+      <c r="E526" t="b">
+        <v>0</v>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/simba-computer-systeme-gmbh/werkstudent-hr-schwerpunkt-social-media-10h-pro-woche-ostfildern-171545</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Multimedia freelancer - localization</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Milengo Gmbh</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E527" t="b">
+        <v>1</v>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/milengo-gmbh/multimedia-freelancer-localization-berlin-253462</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Senior Consultant Test Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Qestit</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E528" t="b">
+        <v>0</v>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qestit/senior-consultant-test-manager-frankfurt-326254</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>528</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Senior Consultant Test Automation Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Qestit</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E529" t="b">
+        <v>0</v>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qestit/senior-consultant-test-automation-engineer-munich-132453</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>529</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Rostock, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="E530" t="b">
+        <v>0</v>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-rostock-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-430644</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>530</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Steuerexperte (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Opus One Recruitment Gmbh</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E531" t="b">
+        <v>0</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/opus-one-recruitment-gmbh/steuerexperte-munich-182315</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>531</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Marketing Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Zeinpharma Germany Gmbh</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Nauheim</t>
+        </is>
+      </c>
+      <c r="E532" t="b">
+        <v>0</v>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/zeinpharma-germany-gmbh/marketing-manager-nauheim-46086</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>532</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Mitarbeiter Second Level Support (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Kommwis Gmbh</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="E533" t="b">
+        <v>0</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/kommwis-gmbh/mitarbeiter-second-level-support-mainz-16609</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>533</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Call Center Agent (m/w/d) Notdienst-Hotline - Teilzeit</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Foundever® B.V. &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Dessau-Roßlau</t>
+        </is>
+      </c>
+      <c r="E534" t="b">
+        <v>0</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/foundever-bv-co-kg/call-center-agent-notdienst-hotline-teilzeit-dessau-rosslau-274586</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>534</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Personalsachbearbeiter (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Schweiger Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Münchsmünster</t>
+        </is>
+      </c>
+      <c r="E535" t="b">
+        <v>0</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schweiger-gmbh-co-kg/personalsachbearbeiter-munchsmunster-23462</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>535</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Mechatroniker / Elektriker / Elektroniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Dpi Automatisierungssysteme Gmbh</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E536" t="b">
+        <v>0</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dpi-automatisierungssysteme-gmbh/mechatroniker-elektriker-elektroniker-berlin-283471</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>536</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Junior Treasurer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Opus One Recruitment Gmbh</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E537" t="b">
+        <v>0</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/opus-one-recruitment-gmbh/junior-treasurer-munich-386859</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>537</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Werkstudent Event Sales / Messe-Marketing</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Gibbon - Id Sports Gmbh</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E538" t="b">
+        <v>0</v>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gibbon-id-sports-gmbh/werkstudent-event-sales-messe-marketing-stuttgart-125896</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>538</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Vertriebsingenieur für den Industriebau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Christmann &amp; Pfeifer Construction Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Neutraubling</t>
+        </is>
+      </c>
+      <c r="E539" t="b">
+        <v>0</v>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/christmann-pfeifer-construction-gmbh-co-kg/vertriebsingenieur-fur-den-industriebau-neutraubling-429359</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>539</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Intern Business Development</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E540" t="b">
+        <v>0</v>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auto1-group-se/intern-business-development-berlin-230402</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>540</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Solutions Engineer</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Qdrant</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E541" t="b">
+        <v>1</v>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qdrant/solutions-engineer-berlin-340925</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>541</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Jena , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Jena</t>
+        </is>
+      </c>
+      <c r="E542" t="b">
+        <v>0</v>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-jena-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-488165</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>542</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Büroleiter Bauphysik (m/w/d) - Nachhaltige Projekte, moderne Führung (60.000-85.000€)</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Riverstate Premium Recruiting</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Potsdam</t>
+        </is>
+      </c>
+      <c r="E543" t="b">
+        <v>0</v>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/riverstate-premium-recruiting/buroleiter-bauphysik-nachhaltige-projekte-moderne-fuhrung-60000-85000eur-potsdam-94933</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>543</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Konstrukteur Anlagenbau in Hamburg (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Hgc Hamburg Gas Consult Gmbh</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Lotte</t>
+        </is>
+      </c>
+      <c r="E544" t="b">
+        <v>0</v>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/hgc-hamburg-gas-consult-gmbh/konstrukteur-anlagenbau-in-hamburg-lotte-285425</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>544</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Design Manager (w/m/d)*</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Engel &amp; Völkers Holding Gmbh</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E545" t="b">
+        <v>0</v>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/engel-volkers-holding-gmbh/design-manager-hamburg-214793</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>545</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer (CEO)</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Soonami.Io Gmbh</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E546" t="b">
+        <v>1</v>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/soonamiio-gmbh/chief-executive-officer-ceo-berlin-283261</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>546</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Ausbildung zum Fachinformatiker für Anwendungsentwicklung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Eder - Agentur Für Produktkommunikation</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Ostfildern</t>
+        </is>
+      </c>
+      <c r="E547" t="b">
+        <v>0</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eder-agentur-fur-produktkommunikation/ausbildung-zum-fachinformatiker-fur-anwendungsentwicklung-ostfildern-37340</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>547</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Ausbildung zum Mediengestalter Printmedien (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Eder - Agentur Für Produktkommunikation</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Ostfildern</t>
+        </is>
+      </c>
+      <c r="E548" t="b">
+        <v>0</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eder-agentur-fur-produktkommunikation/ausbildung-zum-mediengestalter-printmedien-ostfildern-429554</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>548</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>IT Service Management Berater (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Serview Gmbh</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E549" t="b">
+        <v>0</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/serview-gmbh/it-service-management-berater-berlin-477981</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>549</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Baufacharbeiter - Quereinsteiger willkommen</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Bauunternehmung E. Wenk - Inh. Thomas Wenk E.K.</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Themar</t>
+        </is>
+      </c>
+      <c r="E550" t="b">
+        <v>0</v>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bauunternehmung-e-wenk-inh-thomas-wenk-ek/baufacharbeiter-quereinsteiger-willkommen-themar-65794</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>550</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Servicetechniker:in</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Japan Management</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E551" t="b">
+        <v>0</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/japan-management/servicetechnikerin-frankfurt-338834</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>551</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Elektroniker für Betriebstechnik (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Ifürel Emsr-Technik Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Duisburg</t>
+        </is>
+      </c>
+      <c r="E552" t="b">
+        <v>0</v>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ifurel-emsr-technik-gmbh-co-kg/elektroniker-fur-betriebstechnik-duisburg-171322</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>552</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Industriemechaniker - Industrieelektriker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Kaja Food Gmbh</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Kempen</t>
+        </is>
+      </c>
+      <c r="E553" t="b">
+        <v>0</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/kaja-food-gmbh/industriemechaniker-industrieelektriker-kempen-24644</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>553</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>HR Business Partner (d/m/w)</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E554" t="b">
+        <v>0</v>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auto1-group-se/hr-business-partner-berlin-100636</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>554</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Buchhalter | Schwerpunkt Debitoren (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Lichtblick Eaas Gmbh</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E555" t="b">
+        <v>0</v>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lichtblick-eaas-gmbh/buchhalter-schwerpunkt-debitoren-cologne-376058</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>555</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Bauleiter / Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="E556" t="b">
+        <v>0</v>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-dresden-209197</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>556</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Office Manager:in (m/w/d) in Berlin (Minijob-Basis)</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Snocks Gmbh</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Burow</t>
+        </is>
+      </c>
+      <c r="E557" t="b">
+        <v>0</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/snocks-gmbh/office-managerin-in-berlin-minijob-basis-burow-229681</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>557</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Social Media - Manager*in (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>German Design Council - Rat Für Formgebung</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E558" t="b">
+        <v>0</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/german-design-council-rat-fur-formgebung/social-media-managerin-frankfurt-357125</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>558</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Finanzfachkraft für die Abrechnung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Bunt-Stiftung Bildung Und Integrative Arbeit Ggmbh</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E559" t="b">
+        <v>0</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bunt-stiftung-bildung-und-integrative-arbeit-ggmbh/finanzfachkraft-fur-die-abrechnung-berlin-199481</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>559</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Internal Control Associate/Auditor (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Diebold Nixdorf Germany</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="E560" t="b">
+        <v>0</v>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/diebold-nixdorf-germany/internal-control-associate-auditor-paderborn-211345</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>560</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Account Manager Automotive (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Cmf Advertising Gmbh</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Oberursel</t>
+        </is>
+      </c>
+      <c r="E561" t="b">
+        <v>0</v>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cmf-advertising-gmbh/account-manager-automotive-oberursel-387354</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>561</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Senior Full-Stack Engineer (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Omnipeak Gmbh</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E562" t="b">
+        <v>1</v>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/omnipeak-gmbh/senior-full-stack-engineer-frankfurt-343368</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>562</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Projektmanager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Personalica Gmbh</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E563" t="b">
+        <v>0</v>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalica-gmbh/projektmanager-hamburg-345460</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>563</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Sachbearbeiter Kundenservice - Bundesweit (m/w/d) Home Office - Vollzeit</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Ketteler &amp; Funcken Gmbh</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E564" t="b">
+        <v>0</v>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ketteler-funcken-gmbh/sachbearbeiter-kundenservice-bundesweit-home-office-vollzeit-dusseldorf-495853</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>564</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Performance Marketing Manager:in</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Angeheuert Recruiting</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E565" t="b">
+        <v>1</v>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/angeheuert-recruiting/performance-marketing-managerin-nuremberg-57367</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>565</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Softwareentwickler Maschinensoftware PLC / NC (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Modul Mt Verzahntechnik Gmbh</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="E566" t="b">
+        <v>0</v>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/modul-mt-verzahntechnik-gmbh/softwareentwickler-maschinensoftware-plc-nc-chemnitz-228663</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>566</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Performance Marketing Manager:in</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E567" t="b">
+        <v>1</v>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/performance-marketing-managerin-saarbrucken-303105</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>567</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Kundensupport Mitarbeiter - Remote - VZ - Sports &amp; Health Industrie</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Tretmann</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Aachen</t>
+        </is>
+      </c>
+      <c r="E568" t="b">
+        <v>1</v>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tretmann/kundensupport-mitarbeiter-remote-vz-sports-health-industrie-aachen-37507</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>568</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Fachwirt für Finanzberatung (m/w/d) Homeoffice</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Persolowa</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Koblenz</t>
+        </is>
+      </c>
+      <c r="E569" t="b">
+        <v>1</v>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/persolowa/fachwirt-fur-finanzberatung-homeoffice-koblenz-163052</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>569</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Polier (m/w/d) Straßen- und Tiefbau</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Gs Company Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E570" t="b">
+        <v>0</v>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gs-company-gmbh-co-kg/polier-strassen-und-tiefbau-berlin-13404</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Mitarbeiter*in Kund*innenservice (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Santos Grills Gmbh</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E571" t="b">
+        <v>0</v>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/santos-grills-gmbh/mitarbeiterin-kundinnenservice-cologne-325239</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>571</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Konstrukteur Hardware Elektrokonstruktion (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Modul Mt Verzahntechnik Gmbh</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="E572" t="b">
+        <v>0</v>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/modul-mt-verzahntechnik-gmbh/konstrukteur-hardware-elektrokonstruktion-chemnitz-64532</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>572</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Technischer Objektmanager (m/d/w) mit Karrierechance</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Prime Hr Agentur®</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E573" t="b">
+        <v>0</v>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/prime-hr-agentur/technischer-objektmanager-mit-karrierechance-hamburg-184908</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>573</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Werkstudent*in IT Support (all genders)</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Onetwosocial</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E574" t="b">
+        <v>0</v>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onetwosocial/werkstudentin-it-support-all-genders-munich-372159</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>574</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Erfurt, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Erfurt</t>
+        </is>
+      </c>
+      <c r="E575" t="b">
+        <v>0</v>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-erfurt-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-310268</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>575</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Werkstudent*in Human Resources (all genders)</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Onetwosocial</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E576" t="b">
+        <v>0</v>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onetwosocial/werkstudentin-human-resources-all-genders-munich-343969</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>576</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Technischer Property Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Prime Hr Agentur®</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E577" t="b">
+        <v>0</v>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/prime-hr-agentur/technischer-property-manager-hamburg-56765</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>577</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Business Consultant Erp (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Thepublic® Gmbh</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E578" t="b">
+        <v>0</v>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/thepublic-gmbh/business-consultant-erp-stuttgart-143689</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>578</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>It Projektmanager Erp (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Thepublic® Gmbh</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E579" t="b">
+        <v>0</v>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/thepublic-gmbh/it-projektmanager-erp-stuttgart-432181</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>579</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Data Analyst - Business Intelligence (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E580" t="b">
+        <v>0</v>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/data-analyst-business-intelligence-giessen-240310</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>580</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Senior Software Developer:in (m/w/d) im Kölner Startup</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Greenpocket Gmbh</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E581" t="b">
+        <v>0</v>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/greenpocket-gmbh/senior-software-developerin-im-kolner-startup-cologne-274422</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>581</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Data Analyst - Business Intelligence (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E582" t="b">
+        <v>0</v>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/data-analyst-business-intelligence-frankfurt-241008</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>582</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Data &amp; BI Specialist (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Wetzlar</t>
+        </is>
+      </c>
+      <c r="E583" t="b">
+        <v>0</v>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/data-bi-specialist-wetzlar-306636</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>583</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Data &amp; BI Specialist (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Personalberatung Angeheuert Gmbh</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E584" t="b">
+        <v>0</v>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/personalberatung-angeheuert-gmbh/data-bi-specialist-frankfurt-78097</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>584</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Technischer Objektmanager (m/w/d) Corporate Real Estate - bis ca. 80.000 € Jahresgehalt</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Qtalents - Real Estate Recruiting</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="E585" t="b">
+        <v>0</v>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qtalents-real-estate-recruiting/technischer-objektmanager-corporate-real-estate-bis-ca-80000-eur-jahresgehalt-darmstadt-475057</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>585</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Python DevOps Entwickler (m/w/d) (Ref.Nr.: 44467)</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Wavestone Germany Ag</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E586" t="b">
+        <v>0</v>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wavestone-germany-ag/python-devops-entwickler-refnr-44467-berlin-76201</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>586</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Serviceberater Nutzfahrzeuge (m/w/d) für mittelständische Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Elmshorn</t>
+        </is>
+      </c>
+      <c r="E587" t="b">
+        <v>0</v>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-nutzfahrzeuge-fur-mittelstandische-autohaus-gruppe-elmshorn-144871</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>587</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>UGC / Creator Manager (m/w/d) - Paid Social Agentur</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Adbaker</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E588" t="b">
+        <v>0</v>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/adbaker/ugc-creator-manager-paid-social-agentur-cologne-117088</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>588</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Werkstudent Buchhaltung/Controlling (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Oehm Und Rehbein Gmbh</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="E589" t="b">
+        <v>0</v>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/oehm-und-rehbein-gmbh/werkstudent-buchhaltung-controlling-rostock-45746</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>589</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Accountant (w/d/m) remote</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Raisenow</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E590" t="b">
+        <v>1</v>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/raisenow/accountant-remote-munich-227904</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>590</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Lebensmittelspezialist: Einstieg als SAP RD Consultant (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Gqs Ag</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Grasbrunn</t>
+        </is>
+      </c>
+      <c r="E591" t="b">
+        <v>0</v>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gqs-ag/lebensmittelspezialist-einstieg-als-sap-rd-consultant-grasbrunn-21543</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>591</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Assistenz Operations (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Pulse Advertising Gmbh</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E592" t="b">
+        <v>0</v>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/pulse-advertising-gmbh/assistenz-operations-hamburg-322678</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>592</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>UX/UI-Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Smake It Gmbh</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Castrop-Rauxel</t>
+        </is>
+      </c>
+      <c r="E593" t="b">
+        <v>0</v>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/smake-it-gmbh/ux-ui-designer-castrop-rauxel-356143</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>593</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Senior Sales Operations Manager</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Join</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E594" t="b">
+        <v>0</v>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/join/senior-sales-operations-manager-berlin-270759</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>594</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Serviceleiter (m/w/d) für Große Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E595" t="b">
+        <v>0</v>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceleiter-fur-grosse-autohaus-gruppe-hamburg-497958</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>595</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>VoIP-Experte (m/w/d),</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Ritter Technologie Gmbh</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Oberhausen</t>
+        </is>
+      </c>
+      <c r="E596" t="b">
+        <v>0</v>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ritter-technologie-gmbh/voip-experte-oberhausen-291557</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>596</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Python Entwickler (m/w/d) (Ref.Nr.: 44466)</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Wavestone Germany Ag</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E597" t="b">
+        <v>0</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wavestone-germany-ag/python-entwickler-refnr-44466-berlin-291530</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>597</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Bilanzbuchhalter (w/m/d) Private Equity-Gesellschaft</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>V-Select</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E598" t="b">
+        <v>0</v>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/v-select/bilanzbuchhalter-private-equity-gesellschaft-hanover-228733</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>598</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Teamleiter HR &amp; Payroll (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Head For Work Gmbh</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E599" t="b">
+        <v>0</v>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/head-for-work-gmbh/teamleiter-hr-payroll-cologne-316396</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>599</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Software Engineer (w/m/d) in Test</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Ionos Se</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E600" t="b">
+        <v>0</v>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ionos-se/software-engineer-in-test-berlin-241483</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>600</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Kaufmännischer Direktor (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Head For Work Gmbh</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Detmold</t>
+        </is>
+      </c>
+      <c r="E601" t="b">
+        <v>0</v>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/head-for-work-gmbh/kaufmannischer-direktor-detmold-303137</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/cleaned_data/cleaned_data.xlsx
+++ b/src/static/cleaned_data/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F601"/>
+  <dimension ref="A1:F701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17265,6 +17265,2806 @@
         </is>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>601</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Product Manager (m/f/d) part-time (80%) - Partnerships Squad</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Tooltime Gmbh</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E602" t="b">
+        <v>0</v>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tooltime-gmbh/product-manager-part-time-80-partnerships-squad-berlin-319322</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>602</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Bauingenieur / Architekt für die technische Objektverwaltung Hausverwaltung Immobileinverwaltung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Busemann &amp; Schremmer Immobilien</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E603" t="b">
+        <v>0</v>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/busemann-schremmer-immobilien/bauingenieur-architekt-fur-die-technische-objektverwaltung-hausverwaltung-immobileinverwaltung-hanover-76249</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>603</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Kalkulator Abbruch/Erdbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Werner Otto Gmbh</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Hamelin</t>
+        </is>
+      </c>
+      <c r="E604" t="b">
+        <v>0</v>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/werner-otto-gmbh/kalkulator-abbruch-erdbau-hamelin-192614</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>604</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Vermessungstechniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Werner Otto Gmbh</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Hamelin</t>
+        </is>
+      </c>
+      <c r="E605" t="b">
+        <v>0</v>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/werner-otto-gmbh/vermessungstechniker-hamelin-276857</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>605</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Technischer Objektbetreuer WEG-Verwaltung Hausverwaltung Immobileinverwaltung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Busemann &amp; Schremmer Immobilien</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E606" t="b">
+        <v>0</v>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/busemann-schremmer-immobilien/technischer-objektbetreuer-weg-verwaltung-hausverwaltung-immobileinverwaltung-hanover-107008</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>606</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Business Developer - Food / D2C (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Benchmarkets Gmbh</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="E607" t="b">
+        <v>0</v>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/benchmarkets-gmbh/business-developer-food-d2c-dresden-297972</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>607</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Projektmanager:in für Websites und digitale Projekte (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Portrino Gmbh</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="E608" t="b">
+        <v>0</v>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/portrino-gmbh/projektmanagerin-fur-websites-und-digitale-projekte-dresden-235681</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>608</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Mobile Growth Hacker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Epap</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E609" t="b">
+        <v>0</v>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/epap/mobile-growth-hacker-berlin-291727</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>609</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Senior Artist Manager / Influencer Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Lionflence</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Mülheim</t>
+        </is>
+      </c>
+      <c r="E610" t="b">
+        <v>0</v>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionflence/senior-artist-manager-influencer-manager-mulheim-78988</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>610</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Artist Manager / Influencer Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Lionflence</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Mülheim</t>
+        </is>
+      </c>
+      <c r="E611" t="b">
+        <v>0</v>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionflence/artist-manager-influencer-manager-mulheim-140159</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>611</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Head of Influencer Marketing (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Lionflence</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Mülheim</t>
+        </is>
+      </c>
+      <c r="E612" t="b">
+        <v>0</v>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionflence/head-of-influencer-marketing-mulheim-273155</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>612</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Artist Manager / Influencer Manager (m/w/d) BERLIN</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Lionflence</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E613" t="b">
+        <v>0</v>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionflence/artist-manager-influencer-manager-berlin-144170</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>613</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Serviceberater (m/w/d) für familiäre Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Wernigerode</t>
+        </is>
+      </c>
+      <c r="E614" t="b">
+        <v>0</v>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-fur-familiare-autohaus-gruppe-wernigerode-84218</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>614</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Performance Marketer mit Fokus auf Copywriting (Remote, Vollzeit)</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Schnell Global</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E615" t="b">
+        <v>1</v>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schnell-global/performance-marketer-mit-fokus-auf-copywriting-remote-vollzeit-berlin-370705</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>615</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Social Media Agent- Praktikum (mit Übernahmeoption in Minijob)</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Koralls</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E616" t="b">
+        <v>1</v>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/koralls/social-media-agent-praktikum-mit-ubernahmeoption-in-minijob-cologne-67411</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>616</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Senior Backend Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Axontic Gmbh</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="E617" t="b">
+        <v>0</v>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/axontic-gmbh/senior-backend-entwickler-bremen-12278</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>617</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Produktionsmitarbeiter (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Gauzy</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Sulz am Neckar</t>
+        </is>
+      </c>
+      <c r="E618" t="b">
+        <v>0</v>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gauzy/produktionsmitarbeiter-sulz-am-neckar-486347</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>618</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Callassistent / Telefonist (m/w/d) - remote</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Jankinson´S Solution Gmbh</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E619" t="b">
+        <v>1</v>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jankinsons-solution-gmbh/callassistent-telefonist-remote-berlin-642</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>619</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Kundenberater m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E620" t="b">
+        <v>0</v>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/kundenberater-krankenversicherung-hamburg-32443</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>620</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E621" t="b">
+        <v>0</v>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-57253</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>621</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E622" t="b">
+        <v>0</v>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-krankenversicherung-hamburg-467309</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>622</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Account Manager m/w/d</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E623" t="b">
+        <v>0</v>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/account-manager-berlin-75855</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>623</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Masseur/Masseurin (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>The Spa</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Krausnick-Groß Wasserburg</t>
+        </is>
+      </c>
+      <c r="E624" t="b">
+        <v>0</v>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/the-spa/masseur-masseurin-krausnick-gross-wasserburg-471682</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>624</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Ausbildung Kaufmann / Kauffrau im E-Commerce (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Landsiedel Nlp Training</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Kitzingen</t>
+        </is>
+      </c>
+      <c r="E625" t="b">
+        <v>0</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/landsiedel-nlp-training/ausbildung-kaufmann-kauffrau-im-e-commerce-kitzingen-377821</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>625</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Mediengestalter/-in Grafikdesigner/-in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Ism Gmbh</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Lippstadt</t>
+        </is>
+      </c>
+      <c r="E626" t="b">
+        <v>0</v>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ism-gmbh/mediengestalter-in-grafikdesigner-in-lippstadt-4989</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>626</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Senior Softwareentwickler:in mit Karriereambitionen - jetzt mit uns voll durchstarten!</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Auralis Partners Gmbh</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Markt Indersdorf</t>
+        </is>
+      </c>
+      <c r="E627" t="b">
+        <v>1</v>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auralis-partners-gmbh/senior-softwareentwicklerin-mit-karriereambitionen-jetzt-mit-uns-voll-durchstarten-markt-indersdorf-462792</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>627</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Senior Product Marketing Manager - Control (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Onapsis</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Heidelberg, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E628" t="b">
+        <v>0</v>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onapsis/senior-product-marketing-manager-control-heidelberg-203425</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>628</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Software Engineer II - Java (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Onapsis</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Heidelberg, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E629" t="b">
+        <v>0</v>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onapsis/software-engineer-ii-java-heidelberg-285207</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>629</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Working Student in Code Analysis</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Onapsis</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Heidelberg, Baden-Württemberg, Germany</t>
+        </is>
+      </c>
+      <c r="E630" t="b">
+        <v>0</v>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/onapsis/working-student-in-code-analysis-heidelberg-320568</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>630</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>IT Systems Engineer Internal IT (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Noris Network Ag</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E631" t="b">
+        <v>0</v>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/noris-network-ag/it-systems-engineer-internal-it-nuremberg-38094</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>631</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Rösler It-Solutions Gmbh</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E632" t="b">
+        <v>0</v>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/rosler-it-solutions-gmbh/werkstudent-hamburg-386245</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>632</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Senior Consultant Microsoft Security</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Bernd Ulrich It- Recruiting</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Wuppertal</t>
+        </is>
+      </c>
+      <c r="E633" t="b">
+        <v>1</v>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bernd-ulrich-it-recruiting/senior-consultant-microsoft-security-wuppertal-478124</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>633</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>FullStack-Developer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Ventx Gmbh</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E634" t="b">
+        <v>0</v>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventx-gmbh/fullstack-developer-munich-429568</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>634</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E635" t="b">
+        <v>0</v>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-140061</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>635</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Praktikum Online-Marketing &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Seomatik Gmbh</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E636" t="b">
+        <v>0</v>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/seomatik-gmbh/praktikum-online-marketing-marketing-dortmund-232752</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>636</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>(Senior) Corporate Account Executive (all genders)</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Urban Sports Club</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E637" t="b">
+        <v>0</v>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/urban-sports-club/senior-corporate-account-executive-all-genders-berlin-256226</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>637</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Partner Support Agent (all genders) - French and German speaking</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Urban Sports Club</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E638" t="b">
+        <v>0</v>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/urban-sports-club/partner-support-agent-all-genders-french-and-german-speaking-berlin-121784</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>638</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Rechtsreferendar/in (all genders)</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Urban Sports Club</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E639" t="b">
+        <v>0</v>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/urban-sports-club/rechtsreferendar-in-all-genders-berlin-187582</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>639</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Sales Admin (m/w/d) FlixShop</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E640" t="b">
+        <v>0</v>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/sales-admin-flixshop-berlin-165507</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>640</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Kundenberater (m/w/d) Flixbus Shop</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E641" t="b">
+        <v>0</v>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/kundenberater-flixbus-shop-berlin-252577</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>641</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Travel Agent (m/w/d) FlixShop</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E642" t="b">
+        <v>0</v>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/travel-agent-flixshop-berlin-101318</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>642</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Quereinstieg (m/w/d) Flixbus Shop</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E643" t="b">
+        <v>0</v>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/quereinstieg-flixbus-shop-berlin-204090</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>643</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Werde Shop Hero (m/w/d) bei Flixbus!</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E644" t="b">
+        <v>0</v>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/werde-shop-hero-bei-flixbus-berlin-277748</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>644</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Station Agent (m/w/d) Flixbus in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E645" t="b">
+        <v>0</v>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/station-agent-flixbus-in-voll-oder-teilzeit-berlin-329506</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>645</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Shop Mitarbeiter (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E646" t="b">
+        <v>0</v>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/shop-mitarbeiter-in-voll-oder-teilzeit-berlin-473311</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>646</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Simulation engineer FEM electric motor for electric drives (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Solaredge</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Schweinfurt</t>
+        </is>
+      </c>
+      <c r="E647" t="b">
+        <v>0</v>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/solaredge/simulation-engineer-fem-electric-motor-for-electric-drives-schweinfurt-480925</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>647</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Marketing Manager (w/m/d)* - Hamburger Headquarter</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Engel &amp; Völkers Holding Gmbh</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E648" t="b">
+        <v>0</v>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/engel-volkers-holding-gmbh/marketing-manager-hamburger-headquarter-255098</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>648</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>COMMUNITY MANAGER - Germany (F/M/D)</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Com2Us Europe Gmbh</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E649" t="b">
+        <v>0</v>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/com2us-europe-gmbh/community-manager-germany-berlin-141644</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>649</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Automatisierungsingenieur / Mechatroniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Pulsed Gmbh</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Garching</t>
+        </is>
+      </c>
+      <c r="E650" t="b">
+        <v>0</v>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/pulsed-gmbh/automatisierungsingenieur-mechatroniker-garching-398009</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>650</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Halle (Saale)</t>
+        </is>
+      </c>
+      <c r="E651" t="b">
+        <v>0</v>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-halle-saale-105104</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>651</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="E652" t="b">
+        <v>0</v>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-magdeburg-55294</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>652</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E653" t="b">
+        <v>0</v>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-leipzig-189228</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>653</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Gera</t>
+        </is>
+      </c>
+      <c r="E654" t="b">
+        <v>0</v>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-gera-475056</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>654</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker (m/w/d) - Bahnbau</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Suhl</t>
+        </is>
+      </c>
+      <c r="E655" t="b">
+        <v>0</v>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-bahnbau-suhl-62230</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>655</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Wernigerode</t>
+        </is>
+      </c>
+      <c r="E656" t="b">
+        <v>0</v>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-wernigerode-245100</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>656</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Eisenach</t>
+        </is>
+      </c>
+      <c r="E657" t="b">
+        <v>0</v>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-eisenach-444806</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>657</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Siegen</t>
+        </is>
+      </c>
+      <c r="E658" t="b">
+        <v>0</v>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-siegen-24650</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>658</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Bautzen</t>
+        </is>
+      </c>
+      <c r="E659" t="b">
+        <v>0</v>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-bautzen-79961</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>659</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Alsfeld</t>
+        </is>
+      </c>
+      <c r="E660" t="b">
+        <v>0</v>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-alsfeld-325847</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>660</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Tübingen</t>
+        </is>
+      </c>
+      <c r="E661" t="b">
+        <v>0</v>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-tubingen-204083</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>661</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Bad Salzungen</t>
+        </is>
+      </c>
+      <c r="E662" t="b">
+        <v>0</v>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-bad-salzungen-167904</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>662</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Saalfeld</t>
+        </is>
+      </c>
+      <c r="E663" t="b">
+        <v>0</v>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-saalfeld-334340</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>663</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Lüneburg</t>
+        </is>
+      </c>
+      <c r="E664" t="b">
+        <v>0</v>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-luneburg-441368</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>664</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Bauleiter/ Bautechniker/ Polier Tiefbau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Borna</t>
+        </is>
+      </c>
+      <c r="E665" t="b">
+        <v>0</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-bautechniker-polier-tiefbau-borna-414937</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>665</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Bauleiter für den Leitungsbau Stromtrasse (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="E666" t="b">
+        <v>0</v>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-fur-den-leitungsbau-stromtrasse-braunschweig-234427</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>666</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="E667" t="b">
+        <v>0</v>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-braunschweig-186684</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>667</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Projektentwickler (m/w/d) Windenergie</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Molbergen</t>
+        </is>
+      </c>
+      <c r="E668" t="b">
+        <v>0</v>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/projektentwickler-windenergie-molbergen-77847</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>668</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="E669" t="b">
+        <v>0</v>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-chemnitz-23827</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>669</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Goslar</t>
+        </is>
+      </c>
+      <c r="E670" t="b">
+        <v>0</v>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-goslar-470047</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>670</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E671" t="b">
+        <v>0</v>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-leipzig-38512</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>671</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Aschaffenburg</t>
+        </is>
+      </c>
+      <c r="E672" t="b">
+        <v>0</v>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-aschaffenburg-20953</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>672</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Bauleiter für den Leitungsbau Stromtrasse (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E673" t="b">
+        <v>0</v>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-fur-den-leitungsbau-stromtrasse-hanover-411055</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>673</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Bauüberwacher im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Halle (Saale)</t>
+        </is>
+      </c>
+      <c r="E674" t="b">
+        <v>0</v>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauuberwacher-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-halle-saale-144477</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>674</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Bauoberleitung - Glasfaserausbau - deutschlandweit -</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E675" t="b">
+        <v>0</v>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauoberleitung-glasfaserausbau-deutschlandweit-leipzig-429829</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>675</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Weimar</t>
+        </is>
+      </c>
+      <c r="E676" t="b">
+        <v>0</v>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-weimar-152488</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>676</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="E677" t="b">
+        <v>0</v>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-paderborn-354984</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>677</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E678" t="b">
+        <v>0</v>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-hanover-379258</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>678</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Isernhagen</t>
+        </is>
+      </c>
+      <c r="E679" t="b">
+        <v>0</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-isernhagen-154773</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>679</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Bauleiter im Tiefbau (m/w/d) - Bereich Glasfaserausbau - deutschlandweit</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Deutscher Bauservice Gmbh</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Inning am Ammersee</t>
+        </is>
+      </c>
+      <c r="E680" t="b">
+        <v>0</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutscher-bauservice-gmbh/bauleiter-im-tiefbau-bereich-glasfaserausbau-deutschlandweit-inning-am-ammersee-60957</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>680</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Backend Engineer (Cloud)</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Retailnext</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="E681" t="b">
+        <v>1</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/retailnext/remote-backend-engineer-cloud-153172</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>681</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Business Development Manager, European Government, Military, and Intelligence</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Spire</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E682" t="b">
+        <v>0</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/spire/business-development-manager-european-government-military-and-intelligence-munich-242770</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>682</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Technical Support Specialist (Germany)</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E683" t="b">
+        <v>0</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/technical-support-specialist-germany-berlin-261267</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>683</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Partner Operations Associate (m/f/x)</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E684" t="b">
+        <v>0</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/partner-operations-associate-berlin-25154</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>684</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Grocery Associate</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Hamburg, Hamburg, Germany</t>
+        </is>
+      </c>
+      <c r="E685" t="b">
+        <v>0</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/grocery-associate-hamburg-402313</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>685</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Projektmanager:in (m/w/x) Innovationsnetzwerk in Vollzeit oder Teilzeit (80-100%)</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Hochschule Reutlingen - Center For Entrepreneurship</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Reutlingen</t>
+        </is>
+      </c>
+      <c r="E686" t="b">
+        <v>0</v>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/hochschule-reutlingen-center-for-entrepreneurship/projektmanagerin-innovationsnetzwerk-in-vollzeit-oder-teilzeit-80-100-reutlingen-269706</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>686</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Werkzeugmechaniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Gs Company Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Nauen</t>
+        </is>
+      </c>
+      <c r="E687" t="b">
+        <v>0</v>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gs-company-gmbh-co-kg/werkzeugmechaniker-nauen-388159</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>687</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Key Account / Akquisemanager (m/w/d) für innovative Content + Marketing Agentur</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Alsterbuben Gmbh</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E688" t="b">
+        <v>0</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/alsterbuben-gmbh/key-account-akquisemanager-fur-innovative-content-marketing-agentur-hamburg-91263</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>688</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Freelancer Grafikdesigner/in (all genders) - 100 % remote</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E689" t="b">
+        <v>0</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/freelancer-grafikdesigner-in-all-genders-100-remote-heidelberg-444100</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>689</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Serviceberater/in (m/w/d) - Bereich Karosserie &amp; Lack</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Maschmeyer Gmbh</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Bergkamen</t>
+        </is>
+      </c>
+      <c r="E690" t="b">
+        <v>0</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/maschmeyer-gmbh/serviceberater-in-bereich-karosserie-lack-bergkamen-396172</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>690</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Kaufmännische/r Angestellte/r (m/w/d) in Bergkamen!</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Maschmeyer Gmbh</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Bergkamen</t>
+        </is>
+      </c>
+      <c r="E691" t="b">
+        <v>0</v>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/maschmeyer-gmbh/kaufmannische-r-angestellte-r-in-bergkamen-299541</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>691</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Versicherungskaufmann/-frau im Innendienst (m/w/d) Homeoffice</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Persolowa</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Koblenz</t>
+        </is>
+      </c>
+      <c r="E692" t="b">
+        <v>1</v>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/persolowa/versicherungskaufmann-frau-im-innendienst-homeoffice-koblenz-424196</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>692</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Account Manager:in (w/m/x) Vollzeit</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Conquer Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Willich</t>
+        </is>
+      </c>
+      <c r="E693" t="b">
+        <v>0</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/conquer-media-gmbh/account-managerin-vollzeit-willich-360469</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>693</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Marketing Manager (w/m/d)* - Hamburger Headquarter</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Engel &amp; Völkers Holding Gmbh</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E694" t="b">
+        <v>0</v>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/engel-volkers-holding-gmbh/marketing-manager-hamburger-headquarter-40993</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>694</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Teamlead International Invoice Management</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Hornetsecurity</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E695" t="b">
+        <v>0</v>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/hornetsecurity/teamlead-international-invoice-management-hanover-29556</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>695</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Social Media Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Zeinpharma Germany Gmbh</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Nauheim</t>
+        </is>
+      </c>
+      <c r="E696" t="b">
+        <v>0</v>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/zeinpharma-germany-gmbh/social-media-manager-nauheim-270485</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>696</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Frontend Developer</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Atmos</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E697" t="b">
+        <v>0</v>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/atmos/frontend-developer-cologne-88712</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>697</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>HR Generalist (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>My Humancapital Gmbh</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E698" t="b">
+        <v>0</v>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/my-humancapital-gmbh/hr-generalist-munich-298171</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>698</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Backend Go Developer (Middle - Senior)</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Atmos</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E699" t="b">
+        <v>0</v>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/atmos/backend-go-developer-middle-senior-cologne-120441</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>699</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Projektleiter TGA - Technische Gebäudeausrüstung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Ruby Gmbh</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E700" t="b">
+        <v>0</v>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ruby-gmbh/projektleiter-tga-technische-gebaudeausrustung-dusseldorf-155466</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>700</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Projektleiter TGA - Technische Gebäudeausrüstung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Ruby Gmbh</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E701" t="b">
+        <v>0</v>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ruby-gmbh/projektleiter-tga-technische-gebaudeausrustung-hamburg-486143</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/cleaned_data/cleaned_data.xlsx
+++ b/src/static/cleaned_data/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F701"/>
+  <dimension ref="A1:F801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20065,6 +20065,2806 @@
         </is>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>701</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Sympathischer IT Systemadministrator (m/w/d) gesucht</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Intercon Solutions Gmbh</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="E702" t="b">
+        <v>0</v>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/intercon-solutions-gmbh/sympathischer-it-systemadministrator-gesucht-munster-128192</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>702</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Pfiffiger IT Systemadministrator (m/w/d) gesucht</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Intercon Solutions Gmbh</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Osnabrück</t>
+        </is>
+      </c>
+      <c r="E703" t="b">
+        <v>0</v>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/intercon-solutions-gmbh/pfiffiger-it-systemadministrator-gesucht-osnabruck-178287</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>703</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Marketing-Fachkraft [m/w/d]</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Bikosigma Gmbh</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Holzwickede</t>
+        </is>
+      </c>
+      <c r="E704" t="b">
+        <v>0</v>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bikosigma-gmbh/marketing-fachkraft-holzwickede-322126</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>704</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Teamassistentin in der Physiotherapie</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Physiotherapie Joscha Mei</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="E705" t="b">
+        <v>0</v>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/physiotherapie-joscha-mei/teamassistentin-in-der-physiotherapie-essen-85471</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>705</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Projektleitung - Elektrotechnik (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Schnepf Planungsgruppe</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Nagold</t>
+        </is>
+      </c>
+      <c r="E706" t="b">
+        <v>0</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schnepf-planungsgruppe/projektleitung-elektrotechnik-nagold-331591</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>706</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Head of Sales @SaaS Startup (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Hellomateo</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E707" t="b">
+        <v>0</v>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/hellomateo/head-of-sales-at-saas-startup-berlin-120209</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>707</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Designer für UX/UI Digital &amp; Print (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Communicators Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E708" t="b">
+        <v>0</v>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/communicators-gmbh-co-kg/designer-fur-ux-ui-digital-print-hamburg-479751</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>708</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Planungsingenieur:in / Konstrukteur:in Tragwerksplanung / BIM-Modeler (ALLPLAN) (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Heg Beratende Ingenieure Berlin Gmbh</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E709" t="b">
+        <v>0</v>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heg-beratende-ingenieure-berlin-gmbh/planungsingenieurin-konstrukteurin-tragwerksplanung-bim-modeler-allplan-berlin-209326</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>709</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Junior Legal Counsel, Northern Europe</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Bolt Technology</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E710" t="b">
+        <v>0</v>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bolt-technology/junior-legal-counsel-northern-europe-berlin-61213</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>710</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Data Engineer with Flink  (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E711" t="b">
+        <v>0</v>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/data-engineer-with-flink-berlin-468608</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>711</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Field Engineer (m/f/d) FlixTrain</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E712" t="b">
+        <v>0</v>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/field-engineer-flixtrain-berlin-313927</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>712</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Network/Infrastructure Engineer (m/f/d) FlixTrain</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E713" t="b">
+        <v>0</v>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/network-infrastructure-engineer-flixtrain-berlin-24799</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>713</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>CRM Communications Manager (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E714" t="b">
+        <v>0</v>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/crm-communications-manager-munich-56903</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>714</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Senior UI/UX Designer - FlixTrain Operations Management Team (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Flix</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E715" t="b">
+        <v>0</v>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/flix/senior-ui-ux-designer-flixtrain-operations-management-team-berlin-493016</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>715</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Merchant Account Development Manager</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E716" t="b">
+        <v>0</v>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/merchant-account-development-manager-berlin-73713</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>716</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Working Student - Wolt Campus Ambassador</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E717" t="b">
+        <v>0</v>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/working-student-wolt-campus-ambassador-berlin-80292</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>717</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Projektingenieur:in Tragwerksplanung / Statiker:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Heg Beratende Ingenieure Berlin Gmbh</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E718" t="b">
+        <v>0</v>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heg-beratende-ingenieure-berlin-gmbh/projektingenieurin-tragwerksplanung-statikerin-berlin-325341</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>718</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Data Analyst (m/w/d) bei einem aufstrebenden Foodtech-Startup</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Garoma Gmbh</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="E719" t="b">
+        <v>0</v>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/garoma-gmbh/data-analyst-bei-einem-aufstrebenden-foodtech-startup-karlsruhe-198843</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>719</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Web Designer (m/f/d) - Remote</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Alrdy</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E720" t="b">
+        <v>1</v>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/alrdy/web-designer-remote-berlin-311235</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>720</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Google Apps Script Engineer</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E721" t="b">
+        <v>0</v>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auto1-group-se/google-apps-script-engineer-berlin-296907</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>721</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Wirtschaftsprüfer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Herber Niewelt Witzel Partnerschaft Mbb</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Fulda</t>
+        </is>
+      </c>
+      <c r="E722" t="b">
+        <v>0</v>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/herber-niewelt-witzel-partnerschaft-mbb/wirtschaftsprufer-fulda-222830</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>722</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Bautechniker/  Steintechniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Schuhmann &amp; Partner</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E723" t="b">
+        <v>0</v>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schuhmann-partner/bautechniker-steintechniker-munich-448886</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>723</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Bautechniker/  Steintechniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Schuhmann &amp; Partner</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E724" t="b">
+        <v>0</v>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/schuhmann-partner/bautechniker-steintechniker-berlin-226014</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>724</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Make.com / n8n Automation-Entwickler (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E725" t="b">
+        <v>1</v>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/makecom-n8n-automation-entwickler-100-remote-worms-47538</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>725</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Berater IT-Projekte (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E726" t="b">
+        <v>1</v>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/berater-it-projekte-100-remote-worms-402620</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>726</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Kreditorenbuchhalter:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Momox</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E727" t="b">
+        <v>0</v>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/momox/kreditorenbuchhalterin-berlin-155646</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>727</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Projektleiter Gebäudeautomation für führendes schweizer Ingenieurbüro (w/m, 80-100%)</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Roger Germ Ag | Personalberatung Energie &amp; Elektro</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E728" t="b">
+        <v>0</v>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/roger-germ-ag-personalberatung-energie-elektro/projektleiter-gebaudeautomation-fur-fuhrendes-schweizer-ingenieurburo-w-m-80-100-munich-204762</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>728</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Werkstudent (w/m/d) oder Praktikant (w/m/d) Vertriebsassistenz</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Skysails Power Gmbh</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E729" t="b">
+        <v>0</v>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/skysails-power-gmbh/werkstudent-oder-praktikant-vertriebsassistenz-hamburg-205096</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>729</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Senior Consultant SAP VC/PP (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Avvale Gmbh</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E730" t="b">
+        <v>1</v>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/avvale-gmbh/senior-consultant-sap-vc-pp-mannheim-140703</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>730</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Junior Google Apps Script Engineer</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Auto1 Group Se</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E731" t="b">
+        <v>0</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auto1-group-se/junior-google-apps-script-engineer-berlin-476311</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>731</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Project Manager (f, m, x)</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E732" t="b">
+        <v>0</v>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/altitude/project-manager-f-m-x-berlin-34293</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>732</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Initiativbewerbung (M/W/D)</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Anti Boring Content Club Gmbh</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E733" t="b">
+        <v>0</v>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/anti-boring-content-club-gmbh/initiativbewerbung-berlin-29186</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>733</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>(Junior) Creative Sales Manager:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Anti Boring Content Club Gmbh</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E734" t="b">
+        <v>0</v>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/anti-boring-content-club-gmbh/junior-creative-sales-managerin-berlin-70673</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>734</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Java Spring Boot Microservices Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Innoapps</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E735" t="b">
+        <v>0</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/innoapps/java-spring-boot-microservices-entwickler-frankfurt-224789</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>735</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in leitender Stellung</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Sozialwerk Heuser</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Bad Aibling</t>
+        </is>
+      </c>
+      <c r="E736" t="b">
+        <v>0</v>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/sozialwerk-heuser/steuerberater-in-leitender-stellung-bad-aibling-285524</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>736</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Java Quarkus Microservices Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Innoapps</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E737" t="b">
+        <v>0</v>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/innoapps/java-quarkus-microservices-entwickler-frankfurt-113346</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>737</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Java Developer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Collaboration Betters The World Gmbh</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E738" t="b">
+        <v>0</v>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/collaboration-betters-the-world-gmbh/java-developer-frankfurt-215444</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>738</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Working Student (m/f/d) for IT &amp; Data Operations</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Green Fusion Gmbh</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E739" t="b">
+        <v>0</v>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/green-fusion-gmbh/working-student-for-it-data-operations-berlin-277842</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>739</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Full Stack Developer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Collaboration Betters The World Gmbh</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E740" t="b">
+        <v>0</v>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/collaboration-betters-the-world-gmbh/full-stack-developer-frankfurt-433544</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>740</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Werkstudent (gn) - Personalberatung/Recruiting</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Argus Search Gmbh</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E741" t="b">
+        <v>0</v>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/argus-search-gmbh/werkstudent-gn-personalberatung-recruiting-berlin-457982</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>741</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Account Manager (m|w|d) - Promotion-/Werbeagentur</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Agentur Für Wahre Kommunikation</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E742" t="b">
+        <v>0</v>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/agentur-fur-wahre-kommunikation/account-manager-mwd-promotion-werbeagentur-hamburg-462823</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>742</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>ERP Consultant (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Das Kontaktwerk (Dkw Consulting Gmbh)</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Altötting</t>
+        </is>
+      </c>
+      <c r="E743" t="b">
+        <v>0</v>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/das-kontaktwerk-dkw-consulting-gmbh/erp-consultant-altotting-186541</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>743</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Werkstudent Social Media Management (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Finally Freelancing Gmbh</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E744" t="b">
+        <v>0</v>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/finally-freelancing-gmbh/werkstudent-social-media-management-hamburg-51211</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>744</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Auftragsmanager (m/w/d) Photovoltaik - 1KOMMA5° Freiburg</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>1Komma5˚</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Freiburg im Breisgau</t>
+        </is>
+      </c>
+      <c r="E745" t="b">
+        <v>0</v>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/1komma50/auftragsmanager-photovoltaik-1komma5-freiburg-freiburg-im-breisgau-9342</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>745</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Praktikant (m/w/d) Controlling</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Evident Europe Gmbh</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E746" t="b">
+        <v>0</v>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/evident-europe-gmbh/praktikant-controlling-hamburg-129076</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>746</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d) Marketing &amp; Communications</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Ict Digital Solutions</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Ismaning</t>
+        </is>
+      </c>
+      <c r="E747" t="b">
+        <v>1</v>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ict-digital-solutions/werkstudent-marketing-communications-ismaning-239974</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>747</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Home Office Call Center Agent (m/w/d) SALES</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Foundever® B.V. &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E748" t="b">
+        <v>1</v>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/foundever-bv-co-kg/home-office-call-center-agent-sales-berlin-459735</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>748</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Ingenieur - Schweißfachtechnik (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Lionment</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Gera</t>
+        </is>
+      </c>
+      <c r="E749" t="b">
+        <v>0</v>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/lionment/ingenieur-schweissfachtechnik-gera-444680</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>749</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Growth &amp; RevOps Analyst</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Bridger</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Wasbek</t>
+        </is>
+      </c>
+      <c r="E750" t="b">
+        <v>0</v>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bridger/growth-revops-analyst-wasbek-469922</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>750</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Bauleiter und Poliere Rohbau/Fassade/Dach/Innenausbau/Modulmontage (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Daiwa House Modular Europe Gmbh</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E751" t="b">
+        <v>0</v>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/daiwa-house-modular-europe-gmbh/bauleiter-und-poliere-rohbau-fassade-dach-innenausbau-modulmontage-berlin-360968</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>751</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Technischer Property Manager (m/w/d) Gewerbe - bis ca. 72.000 € Jahresgehalt - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Qtalents - Real Estate Recruiting</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Leipzig</t>
+        </is>
+      </c>
+      <c r="E752" t="b">
+        <v>0</v>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/qtalents-real-estate-recruiting/technischer-property-manager-gewerbe-bis-ca-72000-eur-jahresgehalt-100-remote-leipzig-251204</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>752</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Telefonist (m/w/d) im Bewerbermanagement - Remote, Teilzeit oder Vollzeit</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Visionactive Gmbh</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="E753" t="b">
+        <v>1</v>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/visionactive-gmbh/telefonist-im-bewerbermanagement-remote-teilzeit-oder-vollzeit-essen-147176</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>753</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d) Customer Support</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Oatsome Gmbh</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E754" t="b">
+        <v>0</v>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/oatsome-gmbh/werkstudent-customer-support-frankfurt-268420</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>754</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Community &amp; Partnership Manager:in</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Ki Bundesverband</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Heilbronn</t>
+        </is>
+      </c>
+      <c r="E755" t="b">
+        <v>0</v>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ki-bundesverband/community-partnership-managerin-heilbronn-50870</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>755</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Mediengestalter:in (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Federhenschneider</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E756" t="b">
+        <v>0</v>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/federhenschneider/mediengestalterin-cologne-211533</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>756</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Leiter:in Finanz- und Rechnungswesen (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Gefeba Engineering Gmbh</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Gladbeck</t>
+        </is>
+      </c>
+      <c r="E757" t="b">
+        <v>0</v>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gefeba-engineering-gmbh/leiterin-finanz-und-rechnungswesen-gladbeck-432818</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>757</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Technischer Redakteur (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>D+P, Dosier- U. Prüftechnik Gmbh</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Nördlingen</t>
+        </is>
+      </c>
+      <c r="E758" t="b">
+        <v>0</v>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dp-dosier-u-pruftechnik-gmbh/technischer-redakteur-nordlingen-80546</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>758</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>SEO Manager:in (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Skoobe</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E759" t="b">
+        <v>0</v>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/skoobe/seo-managerin-in-voll-oder-teilzeit-munich-6952</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>759</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Fullstack Entwickler:in (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Stadt.Werk</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Kiel</t>
+        </is>
+      </c>
+      <c r="E760" t="b">
+        <v>1</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/stadtwerk/fullstack-entwicklerin-kiel-462938</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>760</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E761" t="b">
+        <v>0</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-cologne-197080</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>761</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Kreditexperte/ Kreditexpertin (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Jobsmatter</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="E762" t="b">
+        <v>0</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jobsmatter/kreditexperte-kreditexpertin-munster-160763</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>762</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E763" t="b">
+        <v>0</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-berlin-284242</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>763</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E764" t="b">
+        <v>0</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-munich-116323</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>764</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E765" t="b">
+        <v>1</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-cologne-202315</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>765</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Trainee Product Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Digitale Leute | Blue Ocean Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E766" t="b">
+        <v>0</v>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitale-leute-blue-ocean-media-gmbh/trainee-product-manager-hamburg-282111</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>766</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Technischer Zeicher (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Stock - B.I.G. Gmbh</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Siek</t>
+        </is>
+      </c>
+      <c r="E767" t="b">
+        <v>1</v>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/stock-big-gmbh/technischer-zeicher-siek-381851</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>767</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Vermögensberaterin ESG (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Die Matcherin - Marie Kornhoff</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="E768" t="b">
+        <v>0</v>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/die-matcherin-marie-kornhoff/vermogensberaterin-esg-bonn-332066</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>768</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Systemadministrator:in im Außendienst (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Frings Solutions Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E769" t="b">
+        <v>0</v>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/frings-solutions-deutschland-gmbh/systemadministratorin-im-aussendienst-hamburg-226679</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>769</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Projektleiter Industriebau (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Die Matcherin - Marie Kornhoff</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E770" t="b">
+        <v>1</v>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/die-matcherin-marie-kornhoff/projektleiter-industriebau-cologne-27449</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>770</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>(Senior) Consultant (m/w/d) für IT Transformation</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Sirius Consulting &amp; Training Gmbh</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E771" t="b">
+        <v>1</v>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/sirius-consulting-training-gmbh/senior-consultant-fur-it-transformation-frankfurt-398713</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>771</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Mitarbeiter Innendienst (m/w/d) - Flexibles Arbeiten + HO-Möglichkeit 2.300 - 2.700€ p.a.</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Riverstate Premium Recruiting</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E772" t="b">
+        <v>0</v>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/riverstate-premium-recruiting/mitarbeiter-innendienst-flexibles-arbeiten-ho-moglichkeit-2300-2700eur-pa-cologne-20960</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>772</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Werkstudent (m/w/d) im Bereich QA &amp; Entwicklung</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Garoma Gmbh</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Karlsruhe</t>
+        </is>
+      </c>
+      <c r="E773" t="b">
+        <v>1</v>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/garoma-gmbh/werkstudent-im-bereich-qa-entwicklung-karlsruhe-3818</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>773</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Stellv. Leiter Finanz- und Rechnungswesen</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Bridger</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Lohne</t>
+        </is>
+      </c>
+      <c r="E774" t="b">
+        <v>0</v>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/bridger/stellv-leiter-finanz-und-rechnungswesen-lohne-198884</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>774</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Reinzeichner (m/w/d) in Vollzeit</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>United Labels Ag</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Münster</t>
+        </is>
+      </c>
+      <c r="E775" t="b">
+        <v>0</v>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/united-labels-ag/reinzeichner-in-vollzeit-munster-429046</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>775</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Software Engineer Python</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Simi Reality Motion Systems Gmbh</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>Unterschleißheim</t>
+        </is>
+      </c>
+      <c r="E776" t="b">
+        <v>0</v>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/simi-reality-motion-systems-gmbh/software-engineer-python-unterschleissheim-114996</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>776</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Prüfungsleiter Audit / Wirtschaftsprüfung (m/w/d/)</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Advanta Gmbh Wirtschaftsprüfungsgesellschaft</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E777" t="b">
+        <v>0</v>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/advanta-gmbh-wirtschaftsprufungsgesellschaft/prufungsleiter-audit-wirtschaftsprufung-frankfurt-481024</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>777</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Steuerfachangestellter / Buchhalter (m/d/w)</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Prime Hr Agentur®</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="E778" t="b">
+        <v>0</v>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/prime-hr-agentur/steuerfachangestellter-buchhalter-ingolstadt-360476</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>778</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Steuerfachangestellter / Buchhalter (m/d/w)</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Prime Hr Agentur®</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E779" t="b">
+        <v>0</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/prime-hr-agentur/steuerfachangestellter-buchhalter-augsburg-396291</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>779</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Service-Assistent/in (m/w/d), befristet für 2 Jahre</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Stellantis &amp;You Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>Wiesbaden</t>
+        </is>
+      </c>
+      <c r="E780" t="b">
+        <v>0</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/stellantis-you-deutschland-gmbh/service-assistent-in-befristet-fur-2-jahre-wiesbaden-431465</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>780</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Search Consultants (All Genders) - Hamburg</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Digitl Gmbh</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E781" t="b">
+        <v>0</v>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitl-gmbh/search-consultants-all-genders-hamburg-12231</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>781</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Search Consultants (All Genders) - Munich</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Digitl Gmbh</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E782" t="b">
+        <v>0</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitl-gmbh/search-consultants-all-genders-munich-73212</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>782</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Sachbearbeiter Buchhaltung (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E783" t="b">
+        <v>0</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/sachbearbeiter-buchhaltung-bochum-29105</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>783</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>IT Administrator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Enloc</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="E784" t="b">
+        <v>0</v>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/enloc/it-administrator-dresden-357487</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>784</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Senior Elektroingenieur (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Kopani Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E785" t="b">
+        <v>0</v>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/kopani-consulting-gmbh/senior-elektroingenieur-hamburg-149664</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>785</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Werkstudent/ Pflichtpraktikant Customer Support (all genders)</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Synaos Gmbh</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E786" t="b">
+        <v>1</v>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/synaos-gmbh/werkstudent-pflichtpraktikant-customer-support-all-genders-hanover-142055</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>786</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Groß- und Außenhandelskaufmann - Elektrotechnik (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Eltrok Elektrotechnik Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>Erfurt</t>
+        </is>
+      </c>
+      <c r="E787" t="b">
+        <v>0</v>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eltrok-elektrotechnik-gmbh-co-kg/gross-und-aussenhandelskaufmann-elektrotechnik-erfurt-57527</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>787</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Entgeltabrechner (w/m/d) mit Homeoffice und 35-Stunden-Woche</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Fischer &amp; Partner Gesellschaft Für Personal Mbh</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E788" t="b">
+        <v>0</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/fischer-partner-gesellschaft-fur-personal-mbh/entgeltabrechner-mit-homeoffice-und-35-stunden-woche-stuttgart-36661</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>788</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Investment Manager Capital Markets (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>3E Capital Group</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E789" t="b">
+        <v>0</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/3e-capital-group/investment-manager-capital-markets-dusseldorf-375590</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>789</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>In 30 Sekunden bewerben - Account Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E790" t="b">
+        <v>0</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/in-30-sekunden-bewerben-account-manager-stuttgart-93518</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>790</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Grafikdesigner (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E791" t="b">
+        <v>0</v>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/grafikdesigner-stuttgart-107471</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>791</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>SAP-Anwendungsbetreuer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E792" t="b">
+        <v>0</v>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/sap-anwendungsbetreuer-bochum-357862</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>792</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Praktikum im Grafikdesign (Remote)</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E793" t="b">
+        <v>0</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/praktikum-im-grafikdesign-remote-stuttgart-338804</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>793</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Werkstudent Grafikdesign (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E794" t="b">
+        <v>0</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/werkstudent-grafikdesign-stuttgart-478314</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>794</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>SAP Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E795" t="b">
+        <v>0</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/sap-entwickler-bochum-464250</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>795</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Senior Finance Manager m/w/d</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>K11 Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E796" t="b">
+        <v>0</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/k11-consulting-gmbh/senior-finance-manager-munich-10078</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>796</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>IT-Systemelektroniker (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E797" t="b">
+        <v>0</v>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/it-systemelektroniker-bochum-406780</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>797</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Online Marketing Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E798" t="b">
+        <v>0</v>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/online-marketing-manager-stuttgart-222424</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>798</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Digital Marketing Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E799" t="b">
+        <v>0</v>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/digital-marketing-manager-stuttgart-367677</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>799</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>IT-Systemadministrator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Think About It Gmbh</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="E800" t="b">
+        <v>0</v>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/think-about-it-gmbh/it-systemadministrator-bochum-42233</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>800</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Praktikum Marketing Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Efly Marketplace Services Gmbh</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E801" t="b">
+        <v>0</v>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/efly-marketplace-services-gmbh/praktikum-marketing-manager-stuttgart-59640</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/cleaned_data/cleaned_data.xlsx
+++ b/src/static/cleaned_data/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F801"/>
+  <dimension ref="A1:F901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22865,6 +22865,2806 @@
         </is>
       </c>
     </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>801</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>M&amp;E Operations Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Radisson Hotel Group</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E802" t="b">
+        <v>0</v>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/radisson-hotel-group/me-operations-manager-berlin-137670</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>802</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E803" t="b">
+        <v>0</v>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-heidelberg-487134</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>803</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E804" t="b">
+        <v>0</v>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-frankfurt-am-main-1677</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>804</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E805" t="b">
+        <v>0</v>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-mannheim-260590</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>805</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E806" t="b">
+        <v>0</v>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-heidelberg-212391</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>806</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E807" t="b">
+        <v>0</v>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-frankfurt-am-main-255475</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>807</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E808" t="b">
+        <v>0</v>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-cologne-69634</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>808</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E809" t="b">
+        <v>0</v>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-mannheim-77067</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>809</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E810" t="b">
+        <v>0</v>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-dusseldorf-225440</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>810</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E811" t="b">
+        <v>0</v>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-heidelberg-23573</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>811</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E812" t="b">
+        <v>0</v>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-dusseldorf-567</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>812</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E813" t="b">
+        <v>0</v>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-frankfurt-am-main-462634</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>813</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E814" t="b">
+        <v>0</v>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-cologne-347384</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>814</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E815" t="b">
+        <v>0</v>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-mannheim-413850</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>815</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E816" t="b">
+        <v>0</v>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-heidelberg-271264</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>816</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Social Media &amp; Content Creator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Dcp Digitaldruck &amp; Profiltechnik Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="E817" t="b">
+        <v>0</v>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dcp-digitaldruck-profiltechnik-gmbh-cokg/social-media-content-creator-gutersloh-355458</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>817</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E818" t="b">
+        <v>0</v>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-heidelberg-165309</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>818</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E819" t="b">
+        <v>0</v>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-mannheim-129077</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>819</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E820" t="b">
+        <v>0</v>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-cologne-488544</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>820</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E821" t="b">
+        <v>0</v>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-frankfurt-am-main-235148</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>821</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E822" t="b">
+        <v>0</v>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-dusseldorf-277908</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>822</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E823" t="b">
+        <v>0</v>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-heidelberg-14855</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>823</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E824" t="b">
+        <v>0</v>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-cologne-317025</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>824</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E825" t="b">
+        <v>0</v>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-mannheim-147547</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>825</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Staff Engineer .NET (f/m/d)</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Apaleo</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>München, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E826" t="b">
+        <v>0</v>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/apaleo/staff-engineer-net-munchen-142700</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>826</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Minijob im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E827" t="b">
+        <v>1</v>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/minijob-im-recruiting-100-remote-berlin-339267</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>827</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Werkstudent:in im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E828" t="b">
+        <v>1</v>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/werkstudentin-im-recruiting-100-remote-berlin-246579</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>828</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Lead Engineer Full-Stack (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>42Matches Gmbh</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E829" t="b">
+        <v>0</v>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/42matches-gmbh/lead-engineer-full-stack-hamburg-140652</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>829</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Serviceleiter (m/w/d) für große Autohaus-Gruppe - Hauptstandort in Bergedorf</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E830" t="b">
+        <v>0</v>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceleiter-fur-grosse-autohaus-gruppe-hauptstandort-in-bergedorf-hamburg-168628</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>830</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Serviceberater Nutzfahrzeuge (m/w/d) für mittelständische Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>Elmshorn</t>
+        </is>
+      </c>
+      <c r="E831" t="b">
+        <v>0</v>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-nutzfahrzeuge-fur-mittelstandische-autohaus-gruppe-elmshorn-451815</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>831</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>System Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E832" t="b">
+        <v>1</v>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/system-engineer-stuttgart-197991</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>832</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Senior Backend Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Axontic Gmbh</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="E833" t="b">
+        <v>0</v>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/axontic-gmbh/senior-backend-entwickler-bremen-454155</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>833</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Modern Workplace Engineer - Microsoft 365 (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E834" t="b">
+        <v>1</v>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/modern-workplace-engineer-microsoft-365-stuttgart-40528</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>834</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Bauleiter (m/w/d) mit Schwerpunkt Sanierung von Wohnimmobilien</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Brickup Gmbh</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E835" t="b">
+        <v>0</v>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brickup-gmbh/bauleiter-mit-schwerpunkt-sanierung-von-wohnimmobilien-hamburg-435577</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>835</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>IT Application Manager (m/w/d) Systembetrieb &amp; Prozessmanagement - Remote</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E836" t="b">
+        <v>1</v>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-application-manager-systembetrieb-prozessmanagement-remote-berlin-109584</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>836</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>IT Techniker (m/w/d) Windows Client/ Serverumgebungen</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E837" t="b">
+        <v>0</v>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-techniker-windows-client-serverumgebungen-berlin-40236</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>837</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Junior Automation Experten (m/w/d) für KI-Strategieberatung</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Neurawork</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E838" t="b">
+        <v>1</v>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/neurawork/junior-automation-experten-fur-ki-strategieberatung-berlin-418823</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>838</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E839" t="b">
+        <v>0</v>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-mannheim-67062</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>839</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E840" t="b">
+        <v>0</v>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-cologne-288258</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>840</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E841" t="b">
+        <v>0</v>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-heidelberg-393651</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>841</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E842" t="b">
+        <v>0</v>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-krankenversicherung-hamburg-332750</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>842</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E843" t="b">
+        <v>0</v>
+      </c>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-114921</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>843</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Call Center Agent  m/w/d Kundenservice</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E844" t="b">
+        <v>0</v>
+      </c>
+      <c r="F844" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/call-center-agent-kundenservice-berlin-218147</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>844</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d  Mo-Fr VZ/TZ</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E845" t="b">
+        <v>0</v>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-mo-fr-vz-tz-hamburg-400889</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>845</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Frankfurt am Main, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E846" t="b">
+        <v>0</v>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-frankfurt-am-main-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-55850</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>846</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Creative Communications Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Dxm Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E847" t="b">
+        <v>0</v>
+      </c>
+      <c r="F847" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dxm-gmbh-co-kg/creative-communications-designer-dusseldorf-492273</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>847</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>(Junior)JavaScript-Entwickler (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E848" t="b">
+        <v>1</v>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/juniorjavascript-entwickler-100-remote-worms-136587</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>848</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Callcenteragent als Vorprüfer (m/w/d) für Unternehmen in Krisensituationen | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E849" t="b">
+        <v>1</v>
+      </c>
+      <c r="F849" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/callcenteragent-als-vorprufer-fur-unternehmen-in-krisensituationen-100-home-office-hanover-362782</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>849</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Nürnberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E850" t="b">
+        <v>0</v>
+      </c>
+      <c r="F850" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-nurnberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-nuremberg-268112</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>850</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Personalreferent mit Macherqualität (m/w/d) | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E851" t="b">
+        <v>1</v>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/personalreferent-mit-macherqualitat-100-home-office-hanover-48391</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>851</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E852" t="b">
+        <v>0</v>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/videograf-fotograf-stuttgart-292819</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>852</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>(Pflicht-) Praktikum / Praxissemester Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E853" t="b">
+        <v>0</v>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/pflicht-praktikum-praxissemester-videograf-fotograf-stuttgart-380286</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>853</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Managing Director Corporate Finance/M&amp;A (all genders)</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Banking Consult Executive Search</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E854" t="b">
+        <v>0</v>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/banking-consult-executive-search/managing-director-corporate-finance-ma-all-genders-frankfurt-395941</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>854</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Heilpraktikerin für Ästhetische | Regenerative Medizin</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Inanna Gmbh</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E855" t="b">
+        <v>0</v>
+      </c>
+      <c r="F855" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/inanna-gmbh/heilpraktikerin-fur-asthetische-regenerative-medizin-berlin-225137</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>855</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Teamleiter:in Grundbau und Vermessung Projekte (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Deutsche Reihenhaus Ag</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E856" t="b">
+        <v>0</v>
+      </c>
+      <c r="F856" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutsche-reihenhaus-ag/teamleiterin-grundbau-und-vermessung-projekte-cologne-262008</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>856</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Mechanical Integration Specialist</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>Landa Corporation</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E857" t="b">
+        <v>1</v>
+      </c>
+      <c r="F857" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/landa-corporation/remote-mechanical-integration-specialist-munich-417122</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>857</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Master Stylist (m/w/d) bei WunderHaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Wunderhaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E858" t="b">
+        <v>0</v>
+      </c>
+      <c r="F858" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wunderhaar-friseure-berlin/master-stylist-bei-wunderhaar-friseure-berlin-172014</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>858</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E859" t="b">
+        <v>0</v>
+      </c>
+      <c r="F859" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/technical-account-manager-berlin-464839</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>859</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Social Media - Manager:in</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E860" t="b">
+        <v>0</v>
+      </c>
+      <c r="F860" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/social-media-managerin-schwabisch-hall-107265</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>860</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Film - / Video - Cutter</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E861" t="b">
+        <v>0</v>
+      </c>
+      <c r="F861" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/film-video-cutter-schwabisch-hall-357203</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>861</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Praktikant (m/w/d) für Praktikum in Social Media Marketing Agentur</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Strehlow Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>Kiel</t>
+        </is>
+      </c>
+      <c r="E862" t="b">
+        <v>0</v>
+      </c>
+      <c r="F862" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/strehlow-media-gmbh/praktikant-fur-praktikum-in-social-media-marketing-agentur-kiel-186432</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>862</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Würzburg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="E863" t="b">
+        <v>0</v>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-wurzburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-110253</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>863</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Augsburg , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E864" t="b">
+        <v>0</v>
+      </c>
+      <c r="F864" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-augsburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-431485</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>864</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Part-time CTO</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E865" t="b">
+        <v>1</v>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/part-time-cto-berlin-236359</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>865</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>German-speaking E-commerce assistant</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E866" t="b">
+        <v>0</v>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/german-speaking-e-commerce-assistant-berlin-360379</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>866</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Neuried, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>Neuried</t>
+        </is>
+      </c>
+      <c r="E867" t="b">
+        <v>0</v>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-neuried-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-365025</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>867</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Unterhaching , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="E868" t="b">
+        <v>0</v>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-unterhaching-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-230790</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>868</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Creative Producer @ Ad Creative Agency (Freelance)</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E869" t="b">
+        <v>1</v>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/creative-producer-at-ad-creative-agency-freelance-berlin-392817</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>869</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Karlsfeld , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>Karlsfeld</t>
+        </is>
+      </c>
+      <c r="E870" t="b">
+        <v>0</v>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-karlsfeld-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-61449</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>870</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Ad Creative Strategist (Freelance)</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E871" t="b">
+        <v>1</v>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/ad-creative-strategist-freelance-berlin-36774</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>871</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in München, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E872" t="b">
+        <v>0</v>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-munchen-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-munich-178223</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>872</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Senior SAP Consultant mit Karriereambitionen - jetzt mit uns voll durchstarten! (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Auralis Partners Gmbh</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>Markt Indersdorf</t>
+        </is>
+      </c>
+      <c r="E873" t="b">
+        <v>1</v>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auralis-partners-gmbh/senior-sap-consultant-mit-karriereambitionen-jetzt-mit-uns-voll-durchstarten-markt-indersdorf-403458</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>873</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Heidelberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E874" t="b">
+        <v>0</v>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-heidelberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-188516</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>874</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Mannheim, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E875" t="b">
+        <v>0</v>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-mannheim-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-191853</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>875</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>WerkstudentIn</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Digitaleheimat Gmbh</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E876" t="b">
+        <v>1</v>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitaleheimat-gmbh/werkstudentin-berlin-290614</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>876</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Werkstudent: Embedded Software Developer</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Software Engineering Weber Gmbh</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>Kempten</t>
+        </is>
+      </c>
+      <c r="E877" t="b">
+        <v>0</v>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/software-engineering-weber-gmbh/werkstudent-embedded-software-developer-kempten-170327</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>877</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Verkauf altersgerechete Badsanierung (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Besser Zuhause Gmbh</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E878" t="b">
+        <v>0</v>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/besser-zuhause-gmbh/verkauf-altersgerechete-badsanierung-in-voll-oder-teilzeit-hamburg-224565</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>878</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Messtechniker (m/w/d) im Qualitätswesen Weltmarktführer an der Mosel</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Heads4Solution</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>Zell</t>
+        </is>
+      </c>
+      <c r="E879" t="b">
+        <v>0</v>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heads4solution/messtechniker-im-qualitatswesen-weltmarktfuhrer-an-der-mosel-zell-109369</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>879</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E880" t="b">
+        <v>0</v>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-75306</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>880</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Werkstudent:In Admin HR (m/w/d) Hamburg</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Eta Plus Gmbh</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E881" t="b">
+        <v>0</v>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eta-plus-gmbh/werkstudentin-admin-hr-hamburg-74868</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>881</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>English Native Speaker mit perfekten Deutsch Kenntnissen</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Gito Mbh Verlag</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E882" t="b">
+        <v>0</v>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gito-mbh-verlag/english-native-speaker-mit-perfekten-deutsch-kenntnissen-berlin-377251</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>882</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Produktionsmanager:in (m/w/d) mit Chance auf Stellvertretung als Produktionsleitung</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Jobsmatter</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E883" t="b">
+        <v>0</v>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jobsmatter/produktionsmanagerin-mit-chance-auf-stellvertretung-als-produktionsleitung-giessen-128509</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>883</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Enterprise Account Director</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Retailnext</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E884" t="b">
+        <v>0</v>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/retailnext/enterprise-account-director-berlin-114252</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>884</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Epic Trips Brand Director</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E885" t="b">
+        <v>0</v>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/epic-trips-brand-director-munich-88355</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>885</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Travel Specialist for Central America (German Market)</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E886" t="b">
+        <v>0</v>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/travel-specialist-for-central-america-german-market-berlin-474628</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>886</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Finance Systems Administrator &amp; Developer, IBM TM1</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E887" t="b">
+        <v>0</v>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/finance-systems-administrator-developer-ibm-tm1-berlin-139411</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>887</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Influencer Partnership Manager (all genders) (Junior / Senior)</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Brainbook</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E888" t="b">
+        <v>1</v>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brainbook/influencer-partnership-manager-all-genders-junior-senior-frankfurt-179076</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>888</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Product Owner (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E889" t="b">
+        <v>1</v>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/product-owner-saarbrucken-98262</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>889</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>UX/UI Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E890" t="b">
+        <v>1</v>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/ux-ui-designer-saarbrucken-56590</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>890</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Frontend Developer (m/w/d) - NodeJS / TypeScript / Angular / Next.js</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E891" t="b">
+        <v>1</v>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/frontend-developer-nodejs-typescript-angular-nextjs-saarbrucken-187102</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>891</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Senior Back-End Engineer (Node.js / TypeScript / NestJS)</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Funded.Club</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E892" t="b">
+        <v>0</v>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/fundedclub/senior-back-end-engineer-nodejs-typescript-nestjs-berlin-38774</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>892</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>ImmoPixels sucht Fotografen/Videografen (m/w/d) aus der Region Mannheim/Speyer/ Neustadt - in Teilzeit/Vollzeit</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Immopixels</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>Hettenleidelheim</t>
+        </is>
+      </c>
+      <c r="E893" t="b">
+        <v>1</v>
+      </c>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/immopixels/immopixels-sucht-fotografen-videografen-aus-der-region-mannheim-speyer-neustadt-in-teilzeit-vollzeit-hettenleidelheim-66473</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>893</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Junior Produkt Manger (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Secupay Ag</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>Pulsnitz</t>
+        </is>
+      </c>
+      <c r="E894" t="b">
+        <v>0</v>
+      </c>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/secupay-ag/junior-produkt-manger-pulsnitz-150192</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>894</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Senior Projektleitung (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Mimacom Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E895" t="b">
+        <v>0</v>
+      </c>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/mimacom-deutschland-gmbh/senior-projektleitung-stuttgart-72417</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>895</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Kosmetik Product Manager (m/w/d) Vollzeit</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E896" t="b">
+        <v>0</v>
+      </c>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/kosmetik-product-manager-vollzeit-frankfurt-166026</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>896</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Community Manager (m/w/d) bei Crispy Cousins</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E897" t="b">
+        <v>0</v>
+      </c>
+      <c r="F897" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/community-manager-bei-crispy-cousins-frankfurt-6556</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>897</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Advanced Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E898" t="b">
+        <v>0</v>
+      </c>
+      <c r="F898" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/advanced-analyst-berlin-140843</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>898</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Data Science Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E899" t="b">
+        <v>0</v>
+      </c>
+      <c r="F899" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/data-science-analyst-berlin-192781</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>899</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Werkstudent (w/m/d) HR/People Team</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Clariness</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E900" t="b">
+        <v>0</v>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/clariness/werkstudent-hr-people-team-berlin-377662</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>900</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Lead Software Engineer</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Gradle Inc.</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E901" t="b">
+        <v>0</v>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gradle-inc/lead-software-engineer-berlin-314054</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/cleaned_data/cleaned_data.xlsx
+++ b/src/static/cleaned_data/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F901"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25665,6 +25665,2806 @@
         </is>
       </c>
     </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>901</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Buchhalter(in)/Steuerfachangestellte(r) Teilzeit Remote (ca. 10 Stunden pro Woche)</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Livello Gmbh</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E902" t="b">
+        <v>1</v>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/livello-gmbh/buchhalterin-steuerfachangestellter-teilzeit-remote-ca-10-stunden-pro-woche-dusseldorf-43194</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>902</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>M&amp;E Operations Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Radisson Hotel Group</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E903" t="b">
+        <v>0</v>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/radisson-hotel-group/me-operations-manager-berlin-137670</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>903</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E904" t="b">
+        <v>0</v>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-heidelberg-487134</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>904</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E905" t="b">
+        <v>0</v>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-frankfurt-am-main-1677</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>905</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E906" t="b">
+        <v>0</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-mannheim-260590</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>906</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E907" t="b">
+        <v>0</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-heidelberg-212391</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>907</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E908" t="b">
+        <v>0</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-frankfurt-am-main-255475</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>908</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E909" t="b">
+        <v>0</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-cologne-69634</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>909</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E910" t="b">
+        <v>0</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-mannheim-77067</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>910</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E911" t="b">
+        <v>0</v>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-dusseldorf-225440</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>911</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E912" t="b">
+        <v>0</v>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-heidelberg-23573</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>912</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E913" t="b">
+        <v>0</v>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-dusseldorf-567</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>913</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E914" t="b">
+        <v>0</v>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-frankfurt-am-main-462634</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>914</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E915" t="b">
+        <v>0</v>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-cologne-347384</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>915</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E916" t="b">
+        <v>0</v>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-mannheim-413850</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>916</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E917" t="b">
+        <v>0</v>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-heidelberg-271264</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>917</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Social Media &amp; Content Creator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Dcp Digitaldruck &amp; Profiltechnik Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="E918" t="b">
+        <v>0</v>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dcp-digitaldruck-profiltechnik-gmbh-cokg/social-media-content-creator-gutersloh-355458</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>918</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E919" t="b">
+        <v>0</v>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-heidelberg-165309</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>919</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E920" t="b">
+        <v>0</v>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-mannheim-129077</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>920</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E921" t="b">
+        <v>0</v>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-cologne-488544</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>921</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E922" t="b">
+        <v>0</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-frankfurt-am-main-235148</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>922</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E923" t="b">
+        <v>0</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-dusseldorf-277908</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>923</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E924" t="b">
+        <v>0</v>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-heidelberg-14855</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>924</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E925" t="b">
+        <v>0</v>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-cologne-317025</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>925</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E926" t="b">
+        <v>0</v>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-mannheim-147547</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>926</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Staff Engineer .NET (f/m/d)</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Apaleo</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>München, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E927" t="b">
+        <v>0</v>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/apaleo/staff-engineer-net-munchen-142700</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>927</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Minijob im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E928" t="b">
+        <v>1</v>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/minijob-im-recruiting-100-remote-berlin-339267</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>928</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Werkstudent:in im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E929" t="b">
+        <v>1</v>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/werkstudentin-im-recruiting-100-remote-berlin-246579</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>929</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Lead Engineer Full-Stack (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>42Matches Gmbh</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E930" t="b">
+        <v>0</v>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/42matches-gmbh/lead-engineer-full-stack-hamburg-140652</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>930</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Serviceleiter (m/w/d) für große Autohaus-Gruppe - Hauptstandort in Bergedorf</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E931" t="b">
+        <v>0</v>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceleiter-fur-grosse-autohaus-gruppe-hauptstandort-in-bergedorf-hamburg-168628</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>931</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Serviceberater Nutzfahrzeuge (m/w/d) für mittelständische Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>Elmshorn</t>
+        </is>
+      </c>
+      <c r="E932" t="b">
+        <v>0</v>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-nutzfahrzeuge-fur-mittelstandische-autohaus-gruppe-elmshorn-451815</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>932</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>System Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E933" t="b">
+        <v>1</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/system-engineer-stuttgart-197991</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>933</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Senior Backend Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Axontic Gmbh</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="E934" t="b">
+        <v>0</v>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/axontic-gmbh/senior-backend-entwickler-bremen-454155</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>934</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Modern Workplace Engineer - Microsoft 365 (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E935" t="b">
+        <v>1</v>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/modern-workplace-engineer-microsoft-365-stuttgart-40528</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>935</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Bauleiter (m/w/d) mit Schwerpunkt Sanierung von Wohnimmobilien</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Brickup Gmbh</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E936" t="b">
+        <v>0</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brickup-gmbh/bauleiter-mit-schwerpunkt-sanierung-von-wohnimmobilien-hamburg-435577</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>936</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>IT Application Manager (m/w/d) Systembetrieb &amp; Prozessmanagement - Remote</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E937" t="b">
+        <v>1</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-application-manager-systembetrieb-prozessmanagement-remote-berlin-109584</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>937</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>IT Techniker (m/w/d) Windows Client/ Serverumgebungen</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E938" t="b">
+        <v>0</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-techniker-windows-client-serverumgebungen-berlin-40236</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>938</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Junior Automation Experten (m/w/d) für KI-Strategieberatung</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Neurawork</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E939" t="b">
+        <v>1</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/neurawork/junior-automation-experten-fur-ki-strategieberatung-berlin-418823</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>939</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E940" t="b">
+        <v>0</v>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-mannheim-67062</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>940</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E941" t="b">
+        <v>0</v>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-cologne-288258</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>941</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E942" t="b">
+        <v>0</v>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-heidelberg-393651</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>942</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E943" t="b">
+        <v>0</v>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-krankenversicherung-hamburg-332750</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>943</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E944" t="b">
+        <v>0</v>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-114921</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>944</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Call Center Agent  m/w/d Kundenservice</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E945" t="b">
+        <v>0</v>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/call-center-agent-kundenservice-berlin-218147</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>945</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d  Mo-Fr VZ/TZ</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E946" t="b">
+        <v>0</v>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-mo-fr-vz-tz-hamburg-400889</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>946</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Frankfurt am Main, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E947" t="b">
+        <v>0</v>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-frankfurt-am-main-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-55850</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>947</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Creative Communications Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Dxm Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E948" t="b">
+        <v>0</v>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dxm-gmbh-co-kg/creative-communications-designer-dusseldorf-492273</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>948</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>(Junior)JavaScript-Entwickler (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E949" t="b">
+        <v>1</v>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/juniorjavascript-entwickler-100-remote-worms-136587</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>949</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Callcenteragent als Vorprüfer (m/w/d) für Unternehmen in Krisensituationen | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E950" t="b">
+        <v>1</v>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/callcenteragent-als-vorprufer-fur-unternehmen-in-krisensituationen-100-home-office-hanover-362782</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>950</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Nürnberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E951" t="b">
+        <v>0</v>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-nurnberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-nuremberg-268112</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>951</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Personalreferent mit Macherqualität (m/w/d) | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E952" t="b">
+        <v>1</v>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/personalreferent-mit-macherqualitat-100-home-office-hanover-48391</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>952</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E953" t="b">
+        <v>0</v>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/videograf-fotograf-stuttgart-292819</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>953</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>(Pflicht-) Praktikum / Praxissemester Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E954" t="b">
+        <v>0</v>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/pflicht-praktikum-praxissemester-videograf-fotograf-stuttgart-380286</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>954</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>Managing Director Corporate Finance/M&amp;A (all genders)</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Banking Consult Executive Search</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E955" t="b">
+        <v>0</v>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/banking-consult-executive-search/managing-director-corporate-finance-ma-all-genders-frankfurt-395941</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>955</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Heilpraktikerin für Ästhetische | Regenerative Medizin</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Inanna Gmbh</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E956" t="b">
+        <v>0</v>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/inanna-gmbh/heilpraktikerin-fur-asthetische-regenerative-medizin-berlin-225137</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>956</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Teamleiter:in Grundbau und Vermessung Projekte (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Deutsche Reihenhaus Ag</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E957" t="b">
+        <v>0</v>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutsche-reihenhaus-ag/teamleiterin-grundbau-und-vermessung-projekte-cologne-262008</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>957</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Mechanical Integration Specialist</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Landa Corporation</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E958" t="b">
+        <v>1</v>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/landa-corporation/remote-mechanical-integration-specialist-munich-417122</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>958</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Master Stylist (m/w/d) bei WunderHaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Wunderhaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E959" t="b">
+        <v>0</v>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wunderhaar-friseure-berlin/master-stylist-bei-wunderhaar-friseure-berlin-172014</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>959</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E960" t="b">
+        <v>0</v>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/technical-account-manager-berlin-464839</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>960</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Social Media - Manager:in</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E961" t="b">
+        <v>0</v>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/social-media-managerin-schwabisch-hall-107265</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>961</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Film - / Video - Cutter</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E962" t="b">
+        <v>0</v>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/film-video-cutter-schwabisch-hall-357203</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>962</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Praktikant (m/w/d) für Praktikum in Social Media Marketing Agentur</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Strehlow Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>Kiel</t>
+        </is>
+      </c>
+      <c r="E963" t="b">
+        <v>0</v>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/strehlow-media-gmbh/praktikant-fur-praktikum-in-social-media-marketing-agentur-kiel-186432</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>963</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Würzburg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="E964" t="b">
+        <v>0</v>
+      </c>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-wurzburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-110253</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>964</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Augsburg , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E965" t="b">
+        <v>0</v>
+      </c>
+      <c r="F965" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-augsburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-431485</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>965</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>Part-time CTO</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E966" t="b">
+        <v>1</v>
+      </c>
+      <c r="F966" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/part-time-cto-berlin-236359</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>966</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>German-speaking E-commerce assistant</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E967" t="b">
+        <v>0</v>
+      </c>
+      <c r="F967" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/german-speaking-e-commerce-assistant-berlin-360379</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>967</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Neuried, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>Neuried</t>
+        </is>
+      </c>
+      <c r="E968" t="b">
+        <v>0</v>
+      </c>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-neuried-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-365025</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>968</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Unterhaching , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="E969" t="b">
+        <v>0</v>
+      </c>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-unterhaching-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-230790</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>969</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>Creative Producer @ Ad Creative Agency (Freelance)</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E970" t="b">
+        <v>1</v>
+      </c>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/creative-producer-at-ad-creative-agency-freelance-berlin-392817</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>970</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Karlsfeld , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>Karlsfeld</t>
+        </is>
+      </c>
+      <c r="E971" t="b">
+        <v>0</v>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-karlsfeld-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-61449</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>971</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Ad Creative Strategist (Freelance)</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E972" t="b">
+        <v>1</v>
+      </c>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/ad-creative-strategist-freelance-berlin-36774</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>972</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in München, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E973" t="b">
+        <v>0</v>
+      </c>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-munchen-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-munich-178223</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>973</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Senior SAP Consultant mit Karriereambitionen - jetzt mit uns voll durchstarten! (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Auralis Partners Gmbh</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>Markt Indersdorf</t>
+        </is>
+      </c>
+      <c r="E974" t="b">
+        <v>1</v>
+      </c>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auralis-partners-gmbh/senior-sap-consultant-mit-karriereambitionen-jetzt-mit-uns-voll-durchstarten-markt-indersdorf-403458</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>974</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Heidelberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E975" t="b">
+        <v>0</v>
+      </c>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-heidelberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-188516</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>975</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Mannheim, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E976" t="b">
+        <v>0</v>
+      </c>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-mannheim-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-191853</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>976</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>WerkstudentIn</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Digitaleheimat Gmbh</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E977" t="b">
+        <v>1</v>
+      </c>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitaleheimat-gmbh/werkstudentin-berlin-290614</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>977</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Werkstudent: Embedded Software Developer</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Software Engineering Weber Gmbh</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>Kempten</t>
+        </is>
+      </c>
+      <c r="E978" t="b">
+        <v>0</v>
+      </c>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/software-engineering-weber-gmbh/werkstudent-embedded-software-developer-kempten-170327</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>978</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Verkauf altersgerechete Badsanierung (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Besser Zuhause Gmbh</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E979" t="b">
+        <v>0</v>
+      </c>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/besser-zuhause-gmbh/verkauf-altersgerechete-badsanierung-in-voll-oder-teilzeit-hamburg-224565</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>979</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Messtechniker (m/w/d) im Qualitätswesen Weltmarktführer an der Mosel</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Heads4Solution</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>Zell</t>
+        </is>
+      </c>
+      <c r="E980" t="b">
+        <v>0</v>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heads4solution/messtechniker-im-qualitatswesen-weltmarktfuhrer-an-der-mosel-zell-109369</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>980</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E981" t="b">
+        <v>0</v>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-75306</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>981</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Werkstudent:In Admin HR (m/w/d) Hamburg</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Eta Plus Gmbh</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E982" t="b">
+        <v>0</v>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eta-plus-gmbh/werkstudentin-admin-hr-hamburg-74868</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>982</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>English Native Speaker mit perfekten Deutsch Kenntnissen</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Gito Mbh Verlag</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E983" t="b">
+        <v>0</v>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gito-mbh-verlag/english-native-speaker-mit-perfekten-deutsch-kenntnissen-berlin-377251</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>983</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Produktionsmanager:in (m/w/d) mit Chance auf Stellvertretung als Produktionsleitung</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Jobsmatter</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E984" t="b">
+        <v>0</v>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jobsmatter/produktionsmanagerin-mit-chance-auf-stellvertretung-als-produktionsleitung-giessen-128509</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>984</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Enterprise Account Director</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Retailnext</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E985" t="b">
+        <v>0</v>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/retailnext/enterprise-account-director-berlin-114252</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>985</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Epic Trips Brand Director</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E986" t="b">
+        <v>0</v>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/epic-trips-brand-director-munich-88355</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>986</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Travel Specialist for Central America (German Market)</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E987" t="b">
+        <v>0</v>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/travel-specialist-for-central-america-german-market-berlin-474628</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>987</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Finance Systems Administrator &amp; Developer, IBM TM1</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E988" t="b">
+        <v>0</v>
+      </c>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/finance-systems-administrator-developer-ibm-tm1-berlin-139411</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>988</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Influencer Partnership Manager (all genders) (Junior / Senior)</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Brainbook</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E989" t="b">
+        <v>1</v>
+      </c>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brainbook/influencer-partnership-manager-all-genders-junior-senior-frankfurt-179076</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>989</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Product Owner (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E990" t="b">
+        <v>1</v>
+      </c>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/product-owner-saarbrucken-98262</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>990</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>UX/UI Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E991" t="b">
+        <v>1</v>
+      </c>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/ux-ui-designer-saarbrucken-56590</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>991</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Frontend Developer (m/w/d) - NodeJS / TypeScript / Angular / Next.js</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E992" t="b">
+        <v>1</v>
+      </c>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/frontend-developer-nodejs-typescript-angular-nextjs-saarbrucken-187102</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>992</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Senior Back-End Engineer (Node.js / TypeScript / NestJS)</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Funded.Club</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E993" t="b">
+        <v>0</v>
+      </c>
+      <c r="F993" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/fundedclub/senior-back-end-engineer-nodejs-typescript-nestjs-berlin-38774</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>993</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>ImmoPixels sucht Fotografen/Videografen (m/w/d) aus der Region Mannheim/Speyer/ Neustadt - in Teilzeit/Vollzeit</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Immopixels</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>Hettenleidelheim</t>
+        </is>
+      </c>
+      <c r="E994" t="b">
+        <v>1</v>
+      </c>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/immopixels/immopixels-sucht-fotografen-videografen-aus-der-region-mannheim-speyer-neustadt-in-teilzeit-vollzeit-hettenleidelheim-66473</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>994</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Junior Produkt Manger (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Secupay Ag</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>Pulsnitz</t>
+        </is>
+      </c>
+      <c r="E995" t="b">
+        <v>0</v>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/secupay-ag/junior-produkt-manger-pulsnitz-150192</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>995</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Senior Projektleitung (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Mimacom Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E996" t="b">
+        <v>0</v>
+      </c>
+      <c r="F996" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/mimacom-deutschland-gmbh/senior-projektleitung-stuttgart-72417</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>996</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Kosmetik Product Manager (m/w/d) Vollzeit</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E997" t="b">
+        <v>0</v>
+      </c>
+      <c r="F997" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/kosmetik-product-manager-vollzeit-frankfurt-166026</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>997</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Community Manager (m/w/d) bei Crispy Cousins</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E998" t="b">
+        <v>0</v>
+      </c>
+      <c r="F998" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/community-manager-bei-crispy-cousins-frankfurt-6556</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>998</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Advanced Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E999" t="b">
+        <v>0</v>
+      </c>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/advanced-analyst-berlin-140843</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Data Science Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1000" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1000" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/data-science-analyst-berlin-192781</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Werkstudent (w/m/d) HR/People Team</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Clariness</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1001" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/clariness/werkstudent-hr-people-team-berlin-377662</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/static/cleaned_data/cleaned_data.xlsx
+++ b/src/static/cleaned_data/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28465,6 +28465,2806 @@
         </is>
       </c>
     </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Buchhalter(in)/Steuerfachangestellte(r) Teilzeit Remote (ca. 10 Stunden pro Woche)</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Livello Gmbh</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1002" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/livello-gmbh/buchhalterin-steuerfachangestellter-teilzeit-remote-ca-10-stunden-pro-woche-dusseldorf-43194</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>M&amp;E Operations Manager (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Radisson Hotel Group</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1003" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/radisson-hotel-group/me-operations-manager-berlin-137670</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1004" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1004" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-heidelberg-487134</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>SAP GRC &amp; Security Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E1005" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1005" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-grc-security-berater-remote-frankfurt-am-main-1677</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1006" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1006" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-mannheim-260590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>SAP Solution Manager/Cloud ALM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1007" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-solution-manager-cloud-alm-berater-remote-heidelberg-212391</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E1008" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-frankfurt-am-main-255475</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1009" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-cologne-69634</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1010" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1010" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-mannheim-77067</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1011" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1011" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-dusseldorf-225440</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>SAP Logistik Berater (MM/SD/) (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1012" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1012" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-logistik-berater-mm-sd-remote-heidelberg-23573</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1013" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1013" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-dusseldorf-567</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E1014" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1014" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-frankfurt-am-main-462634</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1015" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1015" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-cologne-347384</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1016" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1016" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-mannheim-413850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>(Senior) SAP HCM Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1017" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1017" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-sap-hcm-berater-remote-heidelberg-271264</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Social Media &amp; Content Creator (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Dcp Digitaldruck &amp; Profiltechnik Gmbh &amp; Co.Kg</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>Gütersloh</t>
+        </is>
+      </c>
+      <c r="E1018" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dcp-digitaldruck-profiltechnik-gmbh-cokg/social-media-content-creator-gutersloh-355458</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1019" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-heidelberg-165309</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1020" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-mannheim-129077</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1021" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-cologne-488544</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>Frankfurt am Main</t>
+        </is>
+      </c>
+      <c r="E1022" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-frankfurt-am-main-235148</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>(Senior) SuccessFactors Berater (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1023" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-successfactors-berater-remote-dusseldorf-277908</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1024" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-heidelberg-14855</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1025" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-cologne-317025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>SAP FI/CO im Beratungsumfeld (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1026" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/sap-fi-co-im-beratungsumfeld-remote-mannheim-147547</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Staff Engineer .NET (f/m/d)</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Apaleo</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>München, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E1027" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/apaleo/staff-engineer-net-munchen-142700</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Minijob im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1028" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/minijob-im-recruiting-100-remote-berlin-339267</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Werkstudent:in im Recruiting (m/w/d) - 100% Remote</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Recruiting Sonia</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1029" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/recruiting-sonia/werkstudentin-im-recruiting-100-remote-berlin-246579</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Lead Engineer Full-Stack (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>42Matches Gmbh</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1030" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1030" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/42matches-gmbh/lead-engineer-full-stack-hamburg-140652</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Serviceleiter (m/w/d) für große Autohaus-Gruppe - Hauptstandort in Bergedorf</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1031" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceleiter-fur-grosse-autohaus-gruppe-hauptstandort-in-bergedorf-hamburg-168628</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Serviceberater Nutzfahrzeuge (m/w/d) für mittelständische Autohaus-Gruppe</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Michael Krohn Consulting</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>Elmshorn</t>
+        </is>
+      </c>
+      <c r="E1032" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/michael-krohn-consulting/serviceberater-nutzfahrzeuge-fur-mittelstandische-autohaus-gruppe-elmshorn-451815</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>System Engineer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1033" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1033" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/system-engineer-stuttgart-197991</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Senior Backend Entwickler (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Axontic Gmbh</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="E1034" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1034" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/axontic-gmbh/senior-backend-entwickler-bremen-454155</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Modern Workplace Engineer - Microsoft 365 (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Indeno Deutschland</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1035" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1035" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/indeno-deutschland/modern-workplace-engineer-microsoft-365-stuttgart-40528</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Bauleiter (m/w/d) mit Schwerpunkt Sanierung von Wohnimmobilien</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Brickup Gmbh</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1036" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1036" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brickup-gmbh/bauleiter-mit-schwerpunkt-sanierung-von-wohnimmobilien-hamburg-435577</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>IT Application Manager (m/w/d) Systembetrieb &amp; Prozessmanagement - Remote</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1037" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1037" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-application-manager-systembetrieb-prozessmanagement-remote-berlin-109584</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>IT Techniker (m/w/d) Windows Client/ Serverumgebungen</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Shaarconsulting</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1038" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1038" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/shaarconsulting/it-techniker-windows-client-serverumgebungen-berlin-40236</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Junior Automation Experten (m/w/d) für KI-Strategieberatung</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>Neurawork</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1039" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1039" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/neurawork/junior-automation-experten-fur-ki-strategieberatung-berlin-418823</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1040" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1040" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-mannheim-67062</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1041" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1041" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-cologne-288258</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>(Senior) Projektmanager SAP S/4HANA (m/w/d) remote</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Tectigo Gmbh</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1042" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1042" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/tectigo-gmbh/senior-projektmanager-sap-s-4hana-remote-heidelberg-393651</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d Krankenversicherung</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1043" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1043" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-krankenversicherung-hamburg-332750</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1044" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1044" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-114921</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Call Center Agent  m/w/d Kundenservice</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1045" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1045" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/call-center-agent-kundenservice-berlin-218147</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Telefonischer Kundenberater / Call Center Agent m/w/d  Mo-Fr VZ/TZ</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1046" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/telefonischer-kundenberater-call-center-agent-mo-fr-vz-tz-hamburg-400889</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Frankfurt am Main, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1047" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-frankfurt-am-main-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-55850</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Creative Communications Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Dxm Gmbh &amp; Co. Kg</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>Düsseldorf</t>
+        </is>
+      </c>
+      <c r="E1048" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/dxm-gmbh-co-kg/creative-communications-designer-dusseldorf-492273</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>(Junior)JavaScript-Entwickler (m/w/d) 100% REMOTE</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Powerprozesse</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>Worms</t>
+        </is>
+      </c>
+      <c r="E1049" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/powerprozesse/juniorjavascript-entwickler-100-remote-worms-136587</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Callcenteragent als Vorprüfer (m/w/d) für Unternehmen in Krisensituationen | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E1050" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/callcenteragent-als-vorprufer-fur-unternehmen-in-krisensituationen-100-home-office-hanover-362782</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Nürnberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>Nuremberg</t>
+        </is>
+      </c>
+      <c r="E1051" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1051" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-nurnberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-nuremberg-268112</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Personalreferent mit Macherqualität (m/w/d) | 100 % Home Office</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Perspektive Zukunft E.V.</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>Hanover</t>
+        </is>
+      </c>
+      <c r="E1052" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1052" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/perspektive-zukunft-ev/personalreferent-mit-macherqualitat-100-home-office-hanover-48391</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1053" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1053" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/videograf-fotograf-stuttgart-292819</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>(Pflicht-) Praktikum / Praxissemester Videograf / Fotograf (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>Taxit Consulting Gmbh</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1054" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1054" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxit-consulting-gmbh/pflicht-praktikum-praxissemester-videograf-fotograf-stuttgart-380286</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Managing Director Corporate Finance/M&amp;A (all genders)</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>Banking Consult Executive Search</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1055" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1055" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/banking-consult-executive-search/managing-director-corporate-finance-ma-all-genders-frankfurt-395941</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Heilpraktikerin für Ästhetische | Regenerative Medizin</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>Inanna Gmbh</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1056" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1056" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/inanna-gmbh/heilpraktikerin-fur-asthetische-regenerative-medizin-berlin-225137</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Teamleiter:in Grundbau und Vermessung Projekte (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Deutsche Reihenhaus Ag</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>Cologne</t>
+        </is>
+      </c>
+      <c r="E1057" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1057" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/deutsche-reihenhaus-ag/teamleiterin-grundbau-und-vermessung-projekte-cologne-262008</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Mechanical Integration Specialist</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>Landa Corporation</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E1058" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1058" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/landa-corporation/remote-mechanical-integration-specialist-munich-417122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Master Stylist (m/w/d) bei WunderHaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>Wunderhaar Friseure Berlin</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1059" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1059" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wunderhaar-friseure-berlin/master-stylist-bei-wunderhaar-friseure-berlin-172014</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1060" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1060" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/technical-account-manager-berlin-464839</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Social Media - Manager:in</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E1061" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1061" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/social-media-managerin-schwabisch-hall-107265</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Film - / Video - Cutter</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Ld Media</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>Schwäbisch Hall</t>
+        </is>
+      </c>
+      <c r="E1062" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1062" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ld-media/film-video-cutter-schwabisch-hall-357203</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Praktikant (m/w/d) für Praktikum in Social Media Marketing Agentur</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Strehlow Media Gmbh</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>Kiel</t>
+        </is>
+      </c>
+      <c r="E1063" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1063" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/strehlow-media-gmbh/praktikant-fur-praktikum-in-social-media-marketing-agentur-kiel-186432</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Würzburg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>Würzburg</t>
+        </is>
+      </c>
+      <c r="E1064" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1064" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-wurzburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-110253</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Augsburg , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="E1065" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-augsburg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-431485</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Part-time CTO</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1066" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/part-time-cto-berlin-236359</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>German-speaking E-commerce assistant</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1067" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/german-speaking-e-commerce-assistant-berlin-360379</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Neuried, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>Neuried</t>
+        </is>
+      </c>
+      <c r="E1068" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1068" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-neuried-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-365025</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Unterhaching , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="E1069" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1069" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-unterhaching-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-230790</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Creative Producer @ Ad Creative Agency (Freelance)</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1070" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1070" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/creative-producer-at-ad-creative-agency-freelance-berlin-392817</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Karlsfeld , auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>Karlsfeld</t>
+        </is>
+      </c>
+      <c r="E1071" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1071" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-karlsfeld-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-61449</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Ad Creative Strategist (Freelance)</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Paintgun</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1072" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1072" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/paintgun/ad-creative-strategist-freelance-berlin-36774</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in München, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>Munich</t>
+        </is>
+      </c>
+      <c r="E1073" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1073" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-munchen-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-munich-178223</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Senior SAP Consultant mit Karriereambitionen - jetzt mit uns voll durchstarten! (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>Auralis Partners Gmbh</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>Markt Indersdorf</t>
+        </is>
+      </c>
+      <c r="E1074" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1074" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/auralis-partners-gmbh/senior-sap-consultant-mit-karriereambitionen-jetzt-mit-uns-voll-durchstarten-markt-indersdorf-403458</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Heidelberg, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1075" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1075" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-heidelberg-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-188516</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Steuerberater (m/w/d) in Mannheim, auf Wunsch mit Partnerperspektive, gesucht - mindestens 90.000€</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Taxtalente.De</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="E1076" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1076" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/taxtalentede/steuerberater-in-mannheim-auf-wunsch-mit-partnerperspektive-gesucht-mindestens-90000eur-191853</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>WerkstudentIn</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Digitaleheimat Gmbh</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1077" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1077" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/digitaleheimat-gmbh/werkstudentin-berlin-290614</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Werkstudent: Embedded Software Developer</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Software Engineering Weber Gmbh</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>Kempten</t>
+        </is>
+      </c>
+      <c r="E1078" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1078" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/software-engineering-weber-gmbh/werkstudent-embedded-software-developer-kempten-170327</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Verkauf altersgerechete Badsanierung (m/w/d) in Voll- oder Teilzeit</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Besser Zuhause Gmbh</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1079" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1079" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/besser-zuhause-gmbh/verkauf-altersgerechete-badsanierung-in-voll-oder-teilzeit-hamburg-224565</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Messtechniker (m/w/d) im Qualitätswesen Weltmarktführer an der Mosel</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>Heads4Solution</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>Zell</t>
+        </is>
+      </c>
+      <c r="E1080" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1080" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/heads4solution/messtechniker-im-qualitatswesen-weltmarktfuhrer-an-der-mosel-zell-109369</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>2350-2800 € Telefonischer Kundenbetreuer  m/w/d Kundenservice Mo-Fr</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>W&amp;W Human Resources -  Ivonne Wresch -</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1081" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1081" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ww-human-resources-ivonne-wresch/2350-2800-eur-telefonischer-kundenbetreuer-kundenservice-mo-fr-berlin-75306</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Werkstudent:In Admin HR (m/w/d) Hamburg</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>Eta Plus Gmbh</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1082" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1082" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/eta-plus-gmbh/werkstudentin-admin-hr-hamburg-74868</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>English Native Speaker mit perfekten Deutsch Kenntnissen</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>Gito Mbh Verlag</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="E1083" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1083" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/gito-mbh-verlag/english-native-speaker-mit-perfekten-deutsch-kenntnissen-berlin-377251</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Produktionsmanager:in (m/w/d) mit Chance auf Stellvertretung als Produktionsleitung</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>Jobsmatter</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E1084" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1084" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/jobsmatter/produktionsmanagerin-mit-chance-auf-stellvertretung-als-produktionsleitung-giessen-128509</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Enterprise Account Director</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>Retailnext</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1085" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1085" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/retailnext/enterprise-account-director-berlin-114252</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Epic Trips Brand Director</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>Munich, Bavaria, Germany</t>
+        </is>
+      </c>
+      <c r="E1086" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/epic-trips-brand-director-munich-88355</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Travel Specialist for Central America (German Market)</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>Ventura Travel</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1087" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/ventura-travel/travel-specialist-for-central-america-german-market-berlin-474628</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Finance Systems Administrator &amp; Developer, IBM TM1</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>Wolt - English</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1088" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/wolt-english/finance-systems-administrator-developer-ibm-tm1-berlin-139411</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Influencer Partnership Manager (all genders) (Junior / Senior)</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>Brainbook</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1089" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1089" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/brainbook/influencer-partnership-manager-all-genders-junior-senior-frankfurt-179076</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Product Owner (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E1090" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1090" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/product-owner-saarbrucken-98262</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>UX/UI Designer (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E1091" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/ux-ui-designer-saarbrucken-56590</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Frontend Developer (m/w/d) - NodeJS / TypeScript / Angular / Next.js</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>Cannaleo Digital Gmbh</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E1092" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/cannaleo-digital-gmbh/frontend-developer-nodejs-typescript-angular-nextjs-saarbrucken-187102</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Senior Back-End Engineer (Node.js / TypeScript / NestJS)</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Funded.Club</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1093" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/fundedclub/senior-back-end-engineer-nodejs-typescript-nestjs-berlin-38774</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>ImmoPixels sucht Fotografen/Videografen (m/w/d) aus der Region Mannheim/Speyer/ Neustadt - in Teilzeit/Vollzeit</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>Immopixels</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>Hettenleidelheim</t>
+        </is>
+      </c>
+      <c r="E1094" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1094" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/immopixels/immopixels-sucht-fotografen-videografen-aus-der-region-mannheim-speyer-neustadt-in-teilzeit-vollzeit-hettenleidelheim-66473</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Junior Produkt Manger (m/w/d)</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>Secupay Ag</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>Pulsnitz</t>
+        </is>
+      </c>
+      <c r="E1095" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1095" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/secupay-ag/junior-produkt-manger-pulsnitz-150192</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Senior Projektleitung (m/f/d)</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>Mimacom Deutschland Gmbh</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="E1096" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/mimacom-deutschland-gmbh/senior-projektleitung-stuttgart-72417</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Kosmetik Product Manager (m/w/d) Vollzeit</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1097" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/kosmetik-product-manager-vollzeit-frankfurt-166026</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Community Manager (m/w/d) bei Crispy Cousins</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Crispy Cousins C.C. Gmbh</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1098" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/crispy-cousins-cc-gmbh/community-manager-bei-crispy-cousins-frankfurt-6556</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Advanced Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1099" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/advanced-analyst-berlin-140843</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Data Science Analyst (w/m/d)</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Billie</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/billie/data-science-analyst-berlin-192781</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Werkstudent (w/m/d) HR/People Team</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Clariness</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>Berlin, Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="E1101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>https://www.arbeitnow.com/jobs/companies/clariness/werkstudent-hr-people-team-berlin-377662</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
